--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="receipt" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="customer" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="membercard" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="employee" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="employee_update" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="card_template" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="init" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="start_before" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="receipt" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="customer" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="membercard" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="employee" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="employee_update" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="card_template" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="init" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -357,10 +358,120 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <cols>
+    <col width="9" customWidth="1" style="6" min="1" max="1"/>
+    <col width="72" customWidth="1" style="6" min="2" max="2"/>
+    <col width="116" customWidth="1" style="6" min="3" max="3"/>
+    <col width="13" customWidth="1" style="6" min="4" max="4"/>
+    <col width="14.625" customWidth="1" style="6" min="5" max="5"/>
+    <col width="53.25" customWidth="1" style="6" min="6" max="6"/>
+    <col width="9" customWidth="1" style="6" min="7" max="30"/>
+    <col width="9" customWidth="1" style="6" min="31" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>http_method</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>TestResult</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>msg</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="50.1" customHeight="1"/>
+    <row r="3" ht="50.1" customHeight="1"/>
+    <row r="4" ht="50.1" customHeight="1"/>
+    <row r="5" ht="50.1" customHeight="1"/>
+    <row r="6" ht="50.1" customHeight="1"/>
+    <row r="7" ht="50.1" customHeight="1"/>
+    <row r="8" ht="50.1" customHeight="1"/>
+    <row r="9" ht="50.1" customHeight="1"/>
+    <row r="10" ht="50.1" customHeight="1"/>
+    <row r="11" ht="50.1" customHeight="1"/>
+    <row r="12" ht="50.1" customHeight="1"/>
+    <row r="13" ht="50.1" customHeight="1"/>
+    <row r="14" ht="50.1" customHeight="1"/>
+    <row r="15" ht="50.1" customHeight="1"/>
+    <row r="16" ht="50.1" customHeight="1"/>
+    <row r="17" ht="50.1" customHeight="1"/>
+    <row r="18" ht="50.1" customHeight="1"/>
+    <row r="19" ht="50.1" customHeight="1"/>
+    <row r="20" ht="50.1" customHeight="1"/>
+    <row r="21" ht="50.1" customHeight="1"/>
+    <row r="22" ht="50.1" customHeight="1"/>
+    <row r="23" ht="50.1" customHeight="1"/>
+    <row r="24" ht="50.1" customHeight="1"/>
+    <row r="25" ht="50.1" customHeight="1"/>
+    <row r="26" ht="50.1" customHeight="1"/>
+    <row r="27" ht="50.1" customHeight="1"/>
+    <row r="28" ht="50.1" customHeight="1"/>
+    <row r="29" ht="50.1" customHeight="1"/>
+    <row r="30" ht="50.1" customHeight="1"/>
+    <row r="31" ht="50.1" customHeight="1"/>
+    <row r="32" ht="50.1" customHeight="1"/>
+    <row r="33" ht="50.1" customHeight="1"/>
+    <row r="34" ht="50.1" customHeight="1"/>
+    <row r="35" ht="50.1" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -1110,7 +1221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1119,7 +1230,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -1130,8 +1241,8 @@
     <col width="13" customWidth="1" style="2" min="4" max="4"/>
     <col width="14.625" customWidth="1" style="2" min="5" max="5"/>
     <col width="64.5" customWidth="1" style="2" min="6" max="6"/>
-    <col width="9" customWidth="1" style="2" min="7" max="57"/>
-    <col width="9" customWidth="1" style="2" min="58" max="16384"/>
+    <col width="9" customWidth="1" style="2" min="7" max="58"/>
+    <col width="9" customWidth="1" style="2" min="59" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1589,7 +1700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1806,7 +1917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1815,7 +1926,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -1828,8 +1939,8 @@
     <col width="64.5" customWidth="1" style="6" min="6" max="6"/>
     <col width="9" customWidth="1" style="6" min="7" max="8"/>
     <col width="29.25" customWidth="1" style="6" min="9" max="9"/>
-    <col width="9" customWidth="1" style="6" min="10" max="42"/>
-    <col width="9" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9" customWidth="1" style="6" min="10" max="43"/>
+    <col width="9" customWidth="1" style="6" min="44" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="2">
@@ -2470,7 +2581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2479,7 +2590,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -2492,8 +2603,8 @@
     <col width="64.5" customWidth="1" style="6" min="6" max="6"/>
     <col width="9" customWidth="1" style="6" min="7" max="8"/>
     <col width="29.25" customWidth="1" style="6" min="9" max="9"/>
-    <col width="9" customWidth="1" style="6" min="10" max="42"/>
-    <col width="9" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9" customWidth="1" style="6" min="10" max="43"/>
+    <col width="9" customWidth="1" style="6" min="44" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="2">
@@ -2894,7 +3005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2902,7 +3013,7 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -2916,8 +3027,8 @@
     <col width="64.5" customWidth="1" style="2" min="6" max="6"/>
     <col width="9" customWidth="1" style="2" min="7" max="8"/>
     <col width="29.25" customWidth="1" style="2" min="9" max="9"/>
-    <col width="9" customWidth="1" style="2" min="10" max="42"/>
-    <col width="9" customWidth="1" style="2" min="43" max="16384"/>
+    <col width="9" customWidth="1" style="2" min="10" max="43"/>
+    <col width="9" customWidth="1" style="2" min="44" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3453,7 +3564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3462,7 +3573,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -3473,8 +3584,8 @@
     <col width="27.125" customWidth="1" style="3" min="4" max="4"/>
     <col width="25.25" customWidth="1" style="3" min="5" max="5"/>
     <col width="38.375" customWidth="1" style="3" min="6" max="6"/>
-    <col width="9" customWidth="1" style="3" min="7" max="38"/>
-    <col width="9" customWidth="1" style="3" min="39" max="16384"/>
+    <col width="9" customWidth="1" style="3" min="7" max="39"/>
+    <col width="9" customWidth="1" style="3" min="40" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3537,7 +3648,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>01c2d0b2-e5d8-479d-99fc-8cc625bd9664</t>
+          <t>01971a5b-23ac-459c-a326-494dcf151fe8</t>
         </is>
       </c>
     </row>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="start_before" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="receipt" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="customer" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="membercard" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="membercard" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="employee" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="employee_update" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="card_template" sheetId="7" state="visible" r:id="rId7"/>
@@ -68,9 +68,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -82,6 +79,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -360,20 +360,20 @@
   </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="9" customWidth="1" style="6" min="1" max="1"/>
-    <col width="72" customWidth="1" style="6" min="2" max="2"/>
-    <col width="116" customWidth="1" style="6" min="3" max="3"/>
-    <col width="13" customWidth="1" style="6" min="4" max="4"/>
-    <col width="14.625" customWidth="1" style="6" min="5" max="5"/>
-    <col width="53.25" customWidth="1" style="6" min="6" max="6"/>
-    <col width="9" customWidth="1" style="6" min="7" max="30"/>
-    <col width="9" customWidth="1" style="6" min="31" max="16384"/>
+    <col width="9" customWidth="1" style="5" min="1" max="1"/>
+    <col width="72" customWidth="1" style="5" min="2" max="2"/>
+    <col width="116" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13" customWidth="1" style="5" min="4" max="4"/>
+    <col width="14.625" customWidth="1" style="5" min="5" max="5"/>
+    <col width="53.25" customWidth="1" style="5" min="6" max="6"/>
+    <col width="9" customWidth="1" style="5" min="7" max="48"/>
+    <col width="9" customWidth="1" style="5" min="49" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -459,6 +459,7 @@
     <row r="35" ht="50.1" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -471,7 +472,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:XFD3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -538,7 +539,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>/api/rts/trade/receipt/createReceipt/V141</t>
         </is>
@@ -552,7 +553,7 @@
  }],
  "gender": "0",
  "customerType": "1",
- "billingTime": 1600219710437.063,
+ "billingTime": ${time_now},
  "receiptItem": [{
   "countingPayment": [],
   "itemSubName": "洗洗洗洗",
@@ -580,12 +581,12 @@
           <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
         </is>
       </c>
-      <c r="G2" s="8" t="inlineStr">
-        <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-0b17fb6985262421936447c9b15281be', 'responseTime': '2020-09-22 14:14:50', 'ret': '0', 'success': '0', 'val': {}}</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="G2" s="7" t="inlineStr">
+        <is>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-2a61da7ef9ec37f5435df05756aecbaa', 'responseTime': '2020-09-22 17:40:03', 'ret': '0', 'success': '0', 'val': {}}</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -602,7 +603,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>/api/rts/trade/receipt/createReceipt/V141</t>
         </is>
@@ -611,7 +612,7 @@
         <is>
           <t>{
  "customerType": "1",
- "billingTime": 1600225723681.7742,
+ "billingTime": ${time_now},
  "gender": "0",
  "receiptItem": [{
   "itemName": "洗吹",
@@ -649,12 +650,12 @@
           <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
-        <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-0713cba03db8940b4838c94f6894a949', 'responseTime': '2020-09-22 14:14:51', 'ret': '0', 'success': '0', 'val': {}}</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-5644b17689b3f98b283c02f563c542b5', 'responseTime': '2020-09-22 17:40:04', 'ret': '0', 'success': '0', 'val': {}}</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -671,7 +672,7 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>/api/rts/trade/receipt/createReceipt/V141</t>
         </is>
@@ -681,7 +682,7 @@
           <t>{
  "customerId": "463765417308680192",
  "gender": "0",
- "billingTime": 1600225884553.323,
+ "billingTime": ${time_now},
  "receiptItem": [{
   "itemNameId": "5",
   "itemSubId": "463767356746289152",
@@ -715,12 +716,12 @@
           <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
         </is>
       </c>
-      <c r="G4" s="8" t="inlineStr">
-        <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-3493308e3c56a7b957da8cf3ef0066b1', 'responseTime': '2020-09-22 14:14:52', 'ret': '0', 'success': '0', 'val': {}}</t>
-        </is>
-      </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-833c7e44c74272948a632144d4b02655', 'responseTime': '2020-09-22 17:40:04', 'ret': '0', 'success': '0', 'val': {}}</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -737,7 +738,7 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>/api/rts/trade/receipt/createReceipt/V141</t>
         </is>
@@ -747,7 +748,7 @@
           <t>{
  "customerId": "463765417308680192",
  "gender": "0",
- "billingTime": 1600225945025.1929,
+ "billingTime": ${time_now},
  "receiptPayment": [{
   "paymentType": "456084858955898120",
   "netAmount": 20
@@ -789,12 +790,12 @@
           <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
         </is>
       </c>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-7ddad9a3ca6bc66c278aa426fedc1b5c', 'responseTime': '2020-09-22 14:14:52', 'ret': '0', 'success': '0', 'val': {}}</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
+      <c r="G5" s="7" t="inlineStr">
+        <is>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-b4fa4c028b20ee4215e9810831855da1', 'responseTime': '2020-09-22 17:40:05', 'ret': '0', 'success': '0', 'val': {}}</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -811,7 +812,7 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>/api/rts/trade/receipt/createReceipt/V141</t>
         </is>
@@ -819,7 +820,7 @@
       <c r="C6" s="1" t="inlineStr">
         <is>
           <t>{
- "billingTime": 1600226106992.7959,
+ "billingTime": ${time_now},
  "customerType": "0",
  "receiptItem": [{
   "serviceEmployee": [],
@@ -856,12 +857,12 @@
           <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
         </is>
       </c>
-      <c r="G6" s="8" t="inlineStr">
-        <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-b13a85e089421fa6357a143ef63d9009', 'responseTime': '2020-09-22 14:14:53', 'ret': '0', 'success': '0', 'val': {}}</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
+      <c r="G6" s="7" t="inlineStr">
+        <is>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-a5a1c31f9c91cb14221d40fb0f06fa47', 'responseTime': '2020-09-22 17:40:05', 'ret': '0', 'success': '0', 'val': {}}</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -878,7 +879,7 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>/api/rts/trade/receipt/createReceipt/V141</t>
         </is>
@@ -887,7 +888,7 @@
         <is>
           <t>{
  "customerType": "0",
- "billingTime": 1600226141656.8389,
+ "billingTime": ${time_now},
  "receiptItem": [{
   "itemCount": 1,
   "countingPayment": [],
@@ -927,12 +928,12 @@
           <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
         </is>
       </c>
-      <c r="G7" s="8" t="inlineStr">
-        <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-4e79cc7d9f5175cbaefe68b90b2b1afb', 'responseTime': '2020-09-22 14:14:55', 'ret': '0', 'success': '0', 'val': {}}</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-a5742dbf35cccdfe6ac06ae8443483d3', 'responseTime': '2020-09-22 17:40:06', 'ret': '0', 'success': '0', 'val': {}}</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -949,7 +950,7 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>/api/rts/trade/receipt/createReceipt/V141</t>
         </is>
@@ -975,7 +976,7 @@
  }],
  "gender": "0",
  "receiptPayment": [],
- "billingTime": 1600237002307.178
+ "billingTime": ${time_now}
 }</t>
         </is>
       </c>
@@ -996,7 +997,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-e0cb68f1f8ab239150d9c3d13a0b5c52', 'responseTime': '2020-09-22 14:14:55', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-2545474cddf54820341592c8e0cd6b3f', 'responseTime': '2020-09-22 17:40:06', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1016,7 +1017,7 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>/api/rts/trade/receipt/createReceipt/V141</t>
         </is>
@@ -1025,7 +1026,7 @@
         <is>
           <t>{
  "customerType": "0",
- "billingTime": 1600237164372.3101,
+ "billingTime": ${time_now},
  "gender": "0",
  "customerId": "463765417308680192",
  "receiptPayment": [{
@@ -1065,7 +1066,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-c8cb95165ee55e361651a8e7acd11ba8', 'responseTime': '2020-09-22 14:14:56', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-000c9fd68629e94741cf7a42a41204b6', 'responseTime': '2020-09-22 17:40:08', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1085,7 +1086,7 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>/api/rts/trade/receipt/createReceipt/V141</t>
         </is>
@@ -1093,7 +1094,7 @@
       <c r="C10" s="1" t="inlineStr">
         <is>
           <t>{
- "billingTime": 1600237208671.1021,
+ "billingTime": ${time_now},
  "customerType": "1",
  "gender": "0",
  "receiptItem": [{
@@ -1130,7 +1131,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-05ae3d530e6577e2863ef026d3e57703', 'responseTime': '2020-09-22 14:14:56', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-3d0fb75eee90e0d5fb1f17f02dc491cc', 'responseTime': '2020-09-22 17:40:08', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1150,7 +1151,7 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>/api/rts/trade/receipt/createReceipt/V141</t>
         </is>
@@ -1179,7 +1180,7 @@
   "netAmount": 20,
   "paymentType": "456084858955898120"
  }],
- "billingTime": 1600237275533.2361,
+ "billingTime": ${time_now},
  "gender": "0"
 }</t>
         </is>
@@ -1201,7 +1202,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-686d51a70cc9960e8dbe4cec88b9a2c0', 'responseTime': '2020-09-22 14:14:57', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-609e37b3a4d4914382f38c5c4bb11aec', 'responseTime': '2020-09-22 17:40:10', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1227,10 +1228,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -1241,8 +1242,8 @@
     <col width="13" customWidth="1" style="2" min="4" max="4"/>
     <col width="14.625" customWidth="1" style="2" min="5" max="5"/>
     <col width="64.5" customWidth="1" style="2" min="6" max="6"/>
-    <col width="9" customWidth="1" style="2" min="7" max="58"/>
-    <col width="9" customWidth="1" style="2" min="59" max="16384"/>
+    <col width="9" customWidth="1" style="2" min="7" max="76"/>
+    <col width="9" customWidth="1" style="2" min="77" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1292,13 +1293,13 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="42.75" customFormat="1" customHeight="1" s="1">
+    <row r="2" ht="50.1" customFormat="1" customHeight="1" s="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>/api/rts/member/membership/addMembership/V125</t>
         </is>
@@ -1327,12 +1328,12 @@
           <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-398514896402f19cb2d9ff0703472095', 'responseTime': '2020-09-22 13:54:30', 'ret': '0', 'success': '0', 'val': {'id': '505781074908803072'}}</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-0984b3e84cefdc87ab0940601ae40979', 'responseTime': '2020-09-22 17:40:10', 'ret': '0', 'success': '0', 'val': {'id': '505837863247409152'}}</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1343,7 +1344,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="29.25" customHeight="1">
+    <row r="3" ht="50.1" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>2</t>
@@ -1359,7 +1360,7 @@
           <t>{
  "rechargeAmount": "1000.0000",
  "systemDictionaryId": "456084858905566471",
- "journalDate": "1600312184042",
+ "journalDate":${time_now},
  "giftAmount": "0.0000",
  "membershipId": "${memberId}",
  "employeeIdList": ["343732200062099456"],
@@ -1382,14 +1383,14 @@
           <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-0d44195ac1301e4d0a508248821c64e9', 'responseTime': '2020-09-22 13:54:32', 'ret': '0', 'success': '0', 'val': {'relationStatus': '1'}}</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>{'msg': 'JSON parse error: For input string: "${time_now}"; nested exception is com.alibaba.fastjson.JSONException: For input string: "${time_now}"', 'requestUUID': 'JY-05fee443c8202090f9512ab194b67ea5', 'responseTime': '2020-09-22 17:40:10', 'ret': 'ERROR_CODE_10001', 'success': '1', 'val': {}}</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
@@ -1398,7 +1399,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="42.75" customHeight="1">
+    <row r="4" ht="50.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>3</t>
@@ -1414,7 +1415,7 @@
           <t>{
  "cardTemplateId": "503611922391625728",
  "employeeIdList": ["343732200062099456"],
- "journalDate": "1600312947742",
+ "journalDate":${time_now},
  "membershipId": "${memberId}",
  "systemDictionaryId": "456084858905566471",
  "purchaseAmount": "2000.0000"
@@ -1436,14 +1437,14 @@
           <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-fa09362822159850a6e9ea513b5e32e7', 'responseTime': '2020-09-22 13:54:33', 'ret': '0', 'success': '0', 'val': {'relationStatus': '1'}}</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>{'msg': 'JSON parse error: For input string: "${time_now}"; nested exception is com.alibaba.fastjson.JSONException: For input string: "${time_now}"', 'requestUUID': 'JY-515553e7e1ece8e87c44ed2dfa03ecf7', 'responseTime': '2020-09-22 17:40:10', 'ret': 'ERROR_CODE_10001', 'success': '1', 'val': {}}</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
@@ -1452,7 +1453,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="39" customHeight="1">
+    <row r="5" ht="50.1" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>4</t>
@@ -1466,7 +1467,7 @@
       <c r="C5" s="1" t="inlineStr">
         <is>
           <t>{
- "journalDate": "1600313017788",
+ "journalDate":${time_now},
  "cardTemplateId": "463767922616791040",
  "employeeIdList": ["343732200062099456"],
  "membershipId": "${memberId}",
@@ -1490,210 +1491,115 @@
           <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-6bbbcbf2c893cc1efbe16f9ba6a00c58', 'responseTime': '2020-09-22 13:54:35', 'ret': '0', 'success': '0', 'val': {'relationStatus': '1'}}</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>{'msg': 'JSON parse error: For input string: "${time_now}"; nested exception is com.alibaba.fastjson.JSONException: For input string: "${time_now}"', 'requestUUID': 'JY-34256bdd6c4392287cba62c363ba6d57', 'responseTime': '2020-09-22 17:40:10', 'ret': 'ERROR_CODE_10001', 'success': '1', 'val': {}}</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>操作成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="50.1" customHeight="1">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>/api/rts/member/membershipCard/membershipCardList/V131</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>{"id":"${memberId}"}</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>查询顾客卡</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-067bd161b5320fa88fe050263f4eaadc', 'responseTime': '2020-09-22 17:40:11', 'ret': '0', 'success': '0', 'val': []}</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I6" s="1" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="71.25" customHeight="1">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>/api/rts/member/membershipCard/membershipCardList/V131</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>{"id":"${memberId}"}</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>查询顾客卡</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-83e101c453545eaa82aebb9b526fd384', 'responseTime': '2020-09-22 13:54:35', 'ret': '0', 'success': '0', 'val': [{'addCashEventStatus': '0', 'applicableItemId': '', 'applicableItemName': '', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '', 'averagePrice': '', 'balanceAmount': '1000.0000', 'balanceGiftAmount': '0.0000', 'balanceRechargeAmount': '1000.0000', 'balanceTimes': '', 'cardName': '储值卡xyz', 'cardType': '1', 'deleteYn': '1', 'enjoyDiscount': '70', 'expireTime': '253402271999000', 'giftAmount': '0.0000', 'lastAveragePrice': '', 'memberCardTemplateId': '465599316220481536', 'membershipCardCode': 'VIP00212', 'membershipCardId': '505781077161144320', 'membershipCardStatus': '1', 'purchasePrice': '', 'purchaseTimes': '', 'rechargeAmount': '1000.0000', 'upgradeYn': '1', 'useMonth': '9999'}, {'addCashEventStatus': '0', 'applicableItemId': '5', 'applicableItemName': '洗吹', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '全部洗吹项目', 'averagePrice': '20.00', 'balanceAmount': '0', 'balanceGiftAmount': '0', 'balanceRechargeAmount': '0', 'balanceTimes': '100', 'cardName': '计次卡测试卡', 'cardType': '2', 'deleteYn': '1', 'enjoyDiscount': '', 'expireTime': '253402271999000', 'giftAmount': '', 'lastAveragePrice': '20.00', 'memberCardTemplateId': '503611922391625728', 'membershipCardCode': 'VIP00213', 'membershipCardId': '505781081657438208', 'membershipCardStatus': '1', 'purchasePrice': '2000.0000', 'purchaseTimes': '100', 'rechargeAmount': '', 'upgradeYn': '0', 'useMonth': '9999'}, {'addCashEventStatus': '0', 'applicableItemId': '', 'applicableItemName': '', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '', 'averagePrice': '', 'balanceAmount': '0', 'balanceGiftAmount': '0', 'balanceRechargeAmount': '0', 'balanceTimes': '0', 'cardName': '年卡1', 'cardType': '3', 'deleteYn': '1', 'enjoyDiscount': '95', 'expireTime': '1631807999000', 'giftAmount': '', 'lastAveragePrice': '', 'memberCardTemplateId': '463767922616791040', 'membershipCardCode': 'VIP00214', 'membershipCardId': '505781085390368768', 'membershipCardStatus': '1', 'purchasePrice': '1000.0000', 'purchaseTimes': '0', 'rechargeAmount': '', 'upgradeYn': '0', 'useMonth': '12'}]}</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>操作成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>/api/rts/member/membershipCard/deleteMembershipCard/V141</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>{"membershipCardId":"${storedCardId}"}</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>删除储值卡</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>{'msg': '会员卡不可删除', 'requestUUID': 'JY-d182813d34166042d0f865baf5f16d73', 'responseTime': '2020-09-22 13:54:36', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>操作成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>/api/rts/member/membershipCard/deleteMembershipCard/V141</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>{"membershipCardId":"${timeCardId}"}</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>删除计次卡</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>{'msg': '会员卡不可删除', 'requestUUID': 'JY-cee4d0c2533d7646e09a04671e60467d', 'responseTime': '2020-09-22 13:54:36', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
-        <is>
-          <t>操作成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>/api/rts/member/membershipCard/deleteMembershipCard/V141</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>{"membershipCardId":"${yearCardId}"}</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>删除年卡</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>{'msg': '会员卡删除失败', 'requestUUID': 'JY-4b70d0defdb57a93bd72afe82b03b0d9', 'responseTime': '2020-09-22 13:54:36', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
-        <is>
-          <t>操作成功</t>
-        </is>
-      </c>
-    </row>
+    <row r="7" ht="50.1" customHeight="1"/>
+    <row r="8" ht="50.1" customHeight="1"/>
+    <row r="9" ht="50.1" customHeight="1"/>
+    <row r="10" ht="50.1" customHeight="1"/>
+    <row r="11" ht="50.1" customHeight="1"/>
+    <row r="12" ht="50.1" customHeight="1"/>
+    <row r="13" ht="50.1" customHeight="1"/>
+    <row r="14" ht="50.1" customHeight="1"/>
+    <row r="15" ht="50.1" customHeight="1"/>
+    <row r="16" ht="50.1" customHeight="1"/>
+    <row r="17" ht="50.1" customHeight="1"/>
+    <row r="18" ht="50.1" customHeight="1"/>
+    <row r="19" ht="50.1" customHeight="1"/>
+    <row r="20" ht="50.1" customHeight="1"/>
+    <row r="21" ht="50.1" customHeight="1"/>
+    <row r="22" ht="50.1" customHeight="1"/>
+    <row r="23" ht="50.1" customHeight="1"/>
+    <row r="24" ht="50.1" customHeight="1"/>
+    <row r="25" ht="50.1" customHeight="1"/>
+    <row r="26" ht="50.1" customHeight="1"/>
+    <row r="27" ht="50.1" customHeight="1"/>
+    <row r="28" ht="50.1" customHeight="1"/>
+    <row r="29" ht="50.1" customHeight="1"/>
+    <row r="30" ht="50.1" customHeight="1"/>
+    <row r="31" ht="50.1" customHeight="1"/>
+    <row r="32" ht="50.1" customHeight="1"/>
+    <row r="33" ht="50.1" customHeight="1"/>
+    <row r="34" ht="50.1" customHeight="1"/>
+    <row r="35" ht="50.1" customHeight="1"/>
+    <row r="36" ht="50.1" customHeight="1"/>
+    <row r="37" ht="50.1" customHeight="1"/>
+    <row r="38" ht="50.1" customHeight="1"/>
+    <row r="39" ht="50.1" customHeight="1"/>
+    <row r="40" ht="50.1" customHeight="1"/>
+    <row r="41" ht="50.1" customHeight="1"/>
+    <row r="42" ht="50.1" customHeight="1"/>
+    <row r="43" ht="50.1" customHeight="1"/>
+    <row r="44" ht="50.1" customHeight="1"/>
+    <row r="45" ht="50.1" customHeight="1"/>
+    <row r="46" ht="50.1" customHeight="1"/>
+    <row r="47" ht="50.1" customHeight="1"/>
+    <row r="48" ht="50.1" customHeight="1"/>
+    <row r="49" ht="50.1" customHeight="1"/>
+    <row r="50" ht="50.1" customHeight="1"/>
+    <row r="51" ht="50.1" customHeight="1"/>
+    <row r="52" ht="50.1" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
@@ -1709,7 +1615,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -1803,12 +1709,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'msg': '会员卡不可删除', 'requestUUID': 'JY-a5afc3725e9fb60f487c1a69c4d7633b', 'responseTime': '2020-09-21 17:40:44', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-0867a9c9aa7a0b2c54f845b753246fc4', 'responseTime': '2020-09-22 17:40:18', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -1850,12 +1756,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'msg': '会员卡不可删除', 'requestUUID': 'JY-b2d11844978660df81eed3e6290d4e14', 'responseTime': '2020-09-21 17:40:44', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-ec86f512fc90e29aaa0eff7c38adb4fc', 'responseTime': '2020-09-22 17:40:18', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
@@ -1897,12 +1803,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'msg': '会员卡删除失败', 'requestUUID': 'JY-b2159b6276eb4734464ce58c9354af8b', 'responseTime': '2020-09-21 17:40:45', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-9aa2c65c054cfaeb77d9bd4c0d1b36aa', 'responseTime': '2020-09-22 17:40:19', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
@@ -1925,22 +1831,22 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="9" customWidth="1" style="6" min="1" max="1"/>
-    <col width="48.875" customWidth="1" style="6" min="2" max="2"/>
-    <col width="61.75" customWidth="1" style="6" min="3" max="3"/>
-    <col width="17.625" customWidth="1" style="6" min="4" max="4"/>
-    <col width="14.625" customWidth="1" style="6" min="5" max="5"/>
-    <col width="64.5" customWidth="1" style="6" min="6" max="6"/>
-    <col width="9" customWidth="1" style="6" min="7" max="8"/>
-    <col width="29.25" customWidth="1" style="6" min="9" max="9"/>
-    <col width="9" customWidth="1" style="6" min="10" max="43"/>
-    <col width="9" customWidth="1" style="6" min="44" max="16384"/>
+    <col width="9" customWidth="1" style="5" min="1" max="1"/>
+    <col width="48.875" customWidth="1" style="5" min="2" max="2"/>
+    <col width="61.75" customWidth="1" style="5" min="3" max="3"/>
+    <col width="17.625" customWidth="1" style="5" min="4" max="4"/>
+    <col width="14.625" customWidth="1" style="5" min="5" max="5"/>
+    <col width="64.5" customWidth="1" style="5" min="6" max="6"/>
+    <col width="9" customWidth="1" style="5" min="7" max="8"/>
+    <col width="29.25" customWidth="1" style="5" min="9" max="9"/>
+    <col width="9" customWidth="1" style="5" min="10" max="61"/>
+    <col width="9" customWidth="1" style="5" min="62" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="2">
@@ -1991,15 +1897,15 @@
       </c>
     </row>
     <row r="2" ht="64.5" customHeight="1">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>/api/rts/base/employee/saveEmployee4Shop/V141</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>{
  "employeeId": "",
@@ -2019,12 +1925,12 @@
 }</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>新建顾客成功</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2036,7 +1942,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-c6a4d05325bb1d918259e10ce6a8d542', 'responseTime': '2020-09-22 13:54:37', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-901eab76b10ee41e32db329fac12e83e', 'responseTime': '2020-09-22 17:40:12', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2044,32 +1950,32 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="I2" s="6" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
       </c>
     </row>
     <row r="3" ht="58.5" customHeight="1">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>/api/rts/base/employee/getEmployeeList</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>获取顾客列表</t>
         </is>
       </c>
-      <c r="E3" s="6" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>get</t>
         </is>
@@ -2081,7 +1987,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-7588d1df5a3861bbc2aee2564a1ec4be', 'responseTime': '2020-09-22 13:54:37', 'ret': '0', 'success': '0', 'val': [{'employeeCompleteStatus': '1', 'employeeHeadImageUrl': 'http://ossuat.round-table-union.com/343732200141791232/employeeLogoImage/343732200062099456/7a309a021eac10928e6ccbb2a0a6e332.jpg', 'employeeId': '343732200062099456', 'employeeNickName': '吴迪', 'positionName': '店主', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505781102122487808', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505774167163785216', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505378264229728256', 'employeeNickName': '牛哥', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505356577140494336', 'employeeNickName': '琅', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '464854987290226688', 'employeeNickName': '王磊1', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '465985919050485760', 'employeeNickName': '哈哈', 'positionName': '总监', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '495635425165332480', 'employeeNickName': '嘿嘿', 'positionName': '美发师', 'showStatus': '1', 'workStatus': '0'}]}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-95b36cbe577a784d25b0de7a400e312e', 'responseTime': '2020-09-22 17:40:13', 'ret': '0', 'success': '0', 'val': [{'employeeCompleteStatus': '1', 'employeeHeadImageUrl': 'http://ossuat.round-table-union.com/343732200141791232/employeeLogoImage/343732200062099456/7a309a021eac10928e6ccbb2a0a6e332.jpg', 'employeeId': '343732200062099456', 'employeeNickName': '吴迪', 'positionName': '店主', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505837871821606912', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505837101718032384', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505836801137430528', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505836109618335744', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505835202264551424', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505833859869167616', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505833286159683584', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505830814775103488', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505824047399817216', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505821997467291648', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505774167163785216', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505378264229728256', 'employeeNickName': '牛哥', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505356577140494336', 'employeeNickName': '琅', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '464854987290226688', 'employeeNickName': '王磊1', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '465985919050485760', 'employeeNickName': '哈哈', 'positionName': '总监', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '495635425165332480', 'employeeNickName': '嘿嘿', 'positionName': '美发师', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505478695282921472', 'employeeNickName': '剑琅联盟', 'positionName': '总监', 'showStatus': '1', 'workStatus': '1'}]}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2089,22 +1995,22 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="I3" s="6" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
       </c>
     </row>
     <row r="4" ht="45.75" customHeight="1">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>/api/rts/base/employee/saveEmployee4Shop/V141</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>{
  "employeeId": "",
@@ -2124,12 +2030,12 @@
 }</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>未输入姓名</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2141,7 +2047,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'msg': '请填写姓名', 'requestUUID': 'JY-83e698c36c4c04970fda32f8e5719b70', 'responseTime': '2020-09-22 13:54:38', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '请填写姓名', 'requestUUID': 'JY-011307d7a4ef072a853fd3af6ed947b1', 'responseTime': '2020-09-22 17:40:13', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2149,22 +2055,22 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="I4" s="6" t="inlineStr">
+      <c r="I4" s="5" t="inlineStr">
         <is>
           <t>请填写姓名</t>
         </is>
       </c>
     </row>
     <row r="5" ht="98.25" customHeight="1">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>/api/rts/base/employee/saveEmployee4Shop/V141</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>{
  "employeeId": "",
@@ -2184,12 +2090,12 @@
 }</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>未输入手机号</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2201,7 +2107,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'msg': '手机号不能为空', 'requestUUID': 'JY-8b42348ca2c6b7eeb15223350827e2e4', 'responseTime': '2020-09-22 13:54:38', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '手机号不能为空', 'requestUUID': 'JY-5cd94b8457ddd7f6203e5586d74719a6', 'responseTime': '2020-09-22 17:40:13', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2209,22 +2115,22 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="I5" s="6" t="inlineStr">
+      <c r="I5" s="5" t="inlineStr">
         <is>
           <t>手机号不能为空</t>
         </is>
       </c>
     </row>
     <row r="6" ht="95.25" customHeight="1">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>/api/rts/base/employee/saveEmployee4Shop/V141</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>{
  "employeeId": "",
@@ -2244,12 +2150,12 @@
 }</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>未选择头衔</t>
         </is>
       </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2261,7 +2167,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'msg': '请选择员工头衔', 'requestUUID': 'JY-21c15e3ba022efcbf08074dafb8ad606', 'responseTime': '2020-09-22 13:54:38', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '请选择员工头衔', 'requestUUID': 'JY-ecd0284bce2536bc24c89c2d0c26e68f', 'responseTime': '2020-09-22 17:40:14', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2269,22 +2175,22 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="I6" s="6" t="inlineStr">
+      <c r="I6" s="5" t="inlineStr">
         <is>
           <t>请选择员工头衔</t>
         </is>
       </c>
     </row>
     <row r="7" ht="99" customHeight="1">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>/api/rts/base/employee/saveEmployee4Shop/V141</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>{
  "employeeId": "",
@@ -2304,12 +2210,12 @@
 }</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>未选择权限</t>
         </is>
       </c>
-      <c r="E7" s="6" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2321,7 +2227,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'msg': '请选择权限', 'requestUUID': 'JY-69d16489591f8652c1a64ca179fdded8', 'responseTime': '2020-09-22 13:54:39', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '请选择权限', 'requestUUID': 'JY-5c88c2a029883ecc645da44e4631fc3d', 'responseTime': '2020-09-22 17:40:14', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2329,22 +2235,22 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="I7" s="6" t="inlineStr">
+      <c r="I7" s="5" t="inlineStr">
         <is>
           <t>请选择权限</t>
         </is>
       </c>
     </row>
     <row r="8" ht="84" customHeight="1">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>/api/rts/base/employee/saveEmployee4Shop/V141</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>{
  "employeeId": "",
@@ -2364,12 +2270,12 @@
 }</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>未输入基本工资</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2381,7 +2287,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'msg': '金额错误', 'requestUUID': 'JY-cd855a872f2cb10d5b55dcb0c2d524af', 'responseTime': '2020-09-22 13:54:39', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '金额错误', 'requestUUID': 'JY-cbc9a6554034cee4562d2966fdec8895', 'responseTime': '2020-09-22 17:40:14', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2389,22 +2295,22 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="I8" s="6" t="inlineStr">
+      <c r="I8" s="5" t="inlineStr">
         <is>
           <t>金额错误</t>
         </is>
       </c>
     </row>
     <row r="9" ht="96" customHeight="1">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>/api/rts/base/employee/saveEmployee4Shop/V141</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>{
  "employeeId": "",
@@ -2424,12 +2330,12 @@
 }</t>
         </is>
       </c>
-      <c r="D9" s="6" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>该手机号已被注册</t>
         </is>
       </c>
-      <c r="E9" s="6" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2441,7 +2347,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'msg': '该手机号已被注册', 'requestUUID': 'JY-0caa939ceada398c76adb67917acc263', 'responseTime': '2020-09-22 13:54:39', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '该手机号已被注册', 'requestUUID': 'JY-da4ca845fc2e095af13c25c58e825e30', 'responseTime': '2020-09-22 17:40:14', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2449,22 +2355,22 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="I9" s="6" t="inlineStr">
+      <c r="I9" s="5" t="inlineStr">
         <is>
           <t>该手机号已被注册</t>
         </is>
       </c>
     </row>
     <row r="10" ht="85.5" customHeight="1">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>/api/rts/base/employee/saveEmployee4Shop/V141</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>{
  "employeeId": "",
@@ -2484,12 +2390,12 @@
 }</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>手机号错误</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2501,7 +2407,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-ca67d5f4c5410fcd30d4039228c12069', 'responseTime': '2020-09-22 13:54:39', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-735193f3eec42b3393f9bb6241457022', 'responseTime': '2020-09-22 17:40:15', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2509,22 +2415,22 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="I10" s="6" t="inlineStr">
+      <c r="I10" s="5" t="inlineStr">
         <is>
           <t>错误的手机号，请确认手机号信息</t>
         </is>
       </c>
     </row>
     <row r="11" ht="79.5" customHeight="1">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>/api/rts/base/employee/saveEmployee4Shop/V141</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>{
  "employeeId": "",
@@ -2544,12 +2450,12 @@
 }</t>
         </is>
       </c>
-      <c r="D11" s="6" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>手机号错误</t>
         </is>
       </c>
-      <c r="E11" s="6" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2561,7 +2467,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-dee8fff5890b4e4636083a2c43c8e979', 'responseTime': '2020-09-22 13:54:40', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-ee7fb639f296ceab6013db83beb4b370', 'responseTime': '2020-09-22 17:40:15', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2569,7 +2475,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="I11" s="6" t="inlineStr">
+      <c r="I11" s="5" t="inlineStr">
         <is>
           <t>错误的手机号，请确认手机号信息</t>
         </is>
@@ -2590,21 +2496,21 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="9" customWidth="1" style="6" min="1" max="1"/>
-    <col width="48.875" customWidth="1" style="6" min="2" max="2"/>
-    <col width="61.75" customWidth="1" style="6" min="3" max="3"/>
-    <col width="17.625" customWidth="1" style="6" min="4" max="4"/>
-    <col width="14.625" customWidth="1" style="6" min="5" max="5"/>
-    <col width="64.5" customWidth="1" style="6" min="6" max="6"/>
-    <col width="9" customWidth="1" style="6" min="7" max="8"/>
-    <col width="29.25" customWidth="1" style="6" min="9" max="9"/>
-    <col width="9" customWidth="1" style="6" min="10" max="43"/>
-    <col width="9" customWidth="1" style="6" min="44" max="16384"/>
+    <col width="9" customWidth="1" style="5" min="1" max="1"/>
+    <col width="48.875" customWidth="1" style="5" min="2" max="2"/>
+    <col width="61.75" customWidth="1" style="5" min="3" max="3"/>
+    <col width="17.625" customWidth="1" style="5" min="4" max="4"/>
+    <col width="14.625" customWidth="1" style="5" min="5" max="5"/>
+    <col width="64.5" customWidth="1" style="5" min="6" max="6"/>
+    <col width="9" customWidth="1" style="5" min="7" max="8"/>
+    <col width="29.25" customWidth="1" style="5" min="9" max="9"/>
+    <col width="9" customWidth="1" style="5" min="10" max="61"/>
+    <col width="9" customWidth="1" style="5" min="62" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="2">
@@ -2655,15 +2561,15 @@
       </c>
     </row>
     <row r="2" ht="99.75" customHeight="1">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>/api/rts/base/employee/updateEmployee4Shop/V141</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>{
  "renewalCardYn": "1",
@@ -2683,12 +2589,12 @@
 }</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>修改员工姓名</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2700,7 +2606,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-b06b0c7c43325b29a5b979a5ebcfbbc7', 'responseTime': '2020-09-22 13:54:41', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-aeb4f93f1550c23a6561967d947f41bc', 'responseTime': '2020-09-22 17:40:15', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2708,22 +2614,22 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="I2" s="6" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
       </c>
     </row>
     <row r="3" ht="66" customHeight="1">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>/api/rts/base/employee/updateEmployee4Shop/V141</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>{
  "renewalCardYn": "1",
@@ -2743,12 +2649,12 @@
 }</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>修改权限</t>
         </is>
       </c>
-      <c r="E3" s="6" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2760,7 +2666,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-077193cb3beee64fe80f166f7b09d95a', 'responseTime': '2020-09-22 13:54:43', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-dc55ec8908f9f41b14149c1cf6783b0f', 'responseTime': '2020-09-22 17:40:16', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2768,22 +2674,22 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="I3" s="6" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
       </c>
     </row>
     <row r="4" ht="81.75" customHeight="1">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>/api/rts/base/employee/updateEmployee4Shop/V141</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>{
  "renewalCardYn": "1",
@@ -2803,12 +2709,12 @@
 }</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>修改职位</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2820,7 +2726,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-f575ffd3823a01228a95ba39ec5de95e', 'responseTime': '2020-09-21 17:53:11', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-45ed75a0ccf2a74fa06ab103d54710b5', 'responseTime': '2020-09-22 17:40:17', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2828,22 +2734,22 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="I4" s="6" t="inlineStr">
+      <c r="I4" s="5" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
       </c>
     </row>
     <row r="5" ht="81.75" customHeight="1">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>/api/rts/base/employee/updateEmployee4Shop/V141</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>{
  "renewalCardYn": "1",
@@ -2863,12 +2769,12 @@
 }</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>修改薪资</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2880,7 +2786,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-f6586ef04c9fb816ba09e3834bf27194', 'responseTime': '2020-09-21 17:53:12', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-40d2fa7bb280d2d4ea58c132bb41d196', 'responseTime': '2020-09-22 17:40:17', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2888,22 +2794,22 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="I5" s="6" t="inlineStr">
+      <c r="I5" s="5" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
       </c>
     </row>
     <row r="6" ht="64.5" customHeight="1">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>/api/rts/base/employee/updateEmployee4Shop/V141</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>{
  "renewalCardYn": "1",
@@ -2923,12 +2829,12 @@
 }</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>员工离职</t>
         </is>
       </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2940,7 +2846,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-cac9e96aead14ce99ea03b069f6cbbba', 'responseTime': '2020-09-21 17:53:12', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-ebdd93ddb2e2596f330f27e6156dd864', 'responseTime': '2020-09-22 17:40:17', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2948,32 +2854,32 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="I6" s="6" t="inlineStr">
+      <c r="I6" s="5" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
       </c>
     </row>
     <row r="7" ht="31.5" customHeight="1">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>/api/rts/base/employee/deleteEmployee/V131</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>{"employeeId":"${employeeId}"}</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>删除员工</t>
         </is>
       </c>
-      <c r="E7" s="6" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>get</t>
         </is>
@@ -2985,7 +2891,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-1e94905f0da03372f3022d9140b900ae', 'responseTime': '2020-09-21 17:53:13', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-0813b47141ce6fa5c5307ca4abe38408', 'responseTime': '2020-09-22 17:40:17', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2993,7 +2899,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="I7" s="6" t="inlineStr">
+      <c r="I7" s="5" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -3011,10 +2917,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -3027,8 +2933,8 @@
     <col width="64.5" customWidth="1" style="2" min="6" max="6"/>
     <col width="9" customWidth="1" style="2" min="7" max="8"/>
     <col width="29.25" customWidth="1" style="2" min="9" max="9"/>
-    <col width="9" customWidth="1" style="2" min="10" max="43"/>
-    <col width="9" customWidth="1" style="2" min="44" max="16384"/>
+    <col width="9" customWidth="1" style="2" min="10" max="61"/>
+    <col width="9" customWidth="1" style="2" min="62" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3149,7 +3055,7 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>{'content-type':'application/json','version': '1.4.2','platform': 'iOS','tk':'${tk}'}</t>
+          <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -3187,7 +3093,7 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>{'content-type':'application/json','version': '1.4.3','platform': 'iOS','tk':'${tk}'}</t>
+          <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -3219,7 +3125,7 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>{'content-type':'application/json','version': '1.4.4','platform': 'iOS','tk':'${tk}'}</t>
+          <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -3251,7 +3157,7 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>{'content-type':'application/json','version': '1.4.5','platform': 'iOS','tk':'${tk}'}</t>
+          <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -3283,7 +3189,7 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>{'content-type':'application/json','version': '1.4.6','platform': 'iOS','tk':'${tk}'}</t>
+          <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -3293,7 +3199,7 @@
       </c>
     </row>
     <row r="8" ht="50.1" customHeight="1">
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>/api/rts/member/card/deleteCardTemplate/V131</t>
         </is>
@@ -3315,7 +3221,7 @@
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>{'content-type':'application/json','version': '1.4.7','platform': 'iOS','tk':'${tk}'}</t>
+          <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -3325,7 +3231,7 @@
       </c>
     </row>
     <row r="9" ht="50.1" customHeight="1">
-      <c r="B9" s="6" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>/api/rts/member/card/deleteCardTemplate/V131</t>
         </is>
@@ -3347,7 +3253,7 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>{'content-type':'application/json','version': '1.4.8','platform': 'iOS','tk':'${tk}'}</t>
+          <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -3357,7 +3263,7 @@
       </c>
     </row>
     <row r="10" ht="50.1" customHeight="1">
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>/api/rts/member/card/deleteCardTemplate/V131</t>
         </is>
@@ -3379,7 +3285,7 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>{'content-type':'application/json','version': '1.4.9','platform': 'iOS','tk':'${tk}'}</t>
+          <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -3388,176 +3294,14 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="50.1" customHeight="1">
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>/api/rts/member/card/addCardTemplate/V141</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>储值卡名称为空</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>{'content-type':'application/json','version': '1.4.10','platform': 'iOS','tk':'${tk}'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="50.1" customHeight="1">
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>/api/rts/member/card/addCardTemplate/V141</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>储值卡充值金额为空</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="inlineStr">
-        <is>
-          <t>{'content-type':'application/json','version': '1.4.11','platform': 'iOS','tk':'${tk}'}</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>充值金额不能为0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="50.1" customHeight="1">
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>/api/rts/member/card/addCardTemplate/V141</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>储值卡折扣为空</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>{'content-type':'application/json','version': '1.4.12','platform': 'iOS','tk':'${tk}'}</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>操作成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="50.1" customHeight="1">
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>/api/rts/member/card/addCardTemplate/V141</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>储值卡有效期限为空</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F14" s="1" t="inlineStr">
-        <is>
-          <t>{'content-type':'application/json','version': '1.4.13','platform': 'iOS','tk':'${tk}'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="50.1" customHeight="1">
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>{
- "purchaseTimes": "",
- "useMonth": "9999",
- "cardType": "2",
- "cardTemplateSourceType": "0",
- "applicableItemId": "5",
- "cardName": "计次卡测试",
- "purchasePrice": "1000"
-}</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>计次卡次数为空</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>购买次数不能为0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="50.1" customHeight="1">
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>{
- "purchaseTimes": "10",
- "useMonth": "9999",
- "cardType": "2",
- "cardTemplateSourceType": "0",
- "applicableItemId": "5",
- "cardName": "计次卡测试",
- "purchasePrice": ""
-}</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>计次卡金额为0</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>购买价格不能为0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="50.1" customHeight="1">
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>计次卡名为空</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="50.1" customHeight="1">
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>计次卡有效期限为空</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="50.1" customHeight="1"/>
-    <row r="20" ht="50.1" customHeight="1"/>
-    <row r="21" ht="50.1" customHeight="1"/>
-    <row r="22" ht="50.1" customHeight="1"/>
-    <row r="23" ht="50.1" customHeight="1"/>
-    <row r="24" ht="50.1" customHeight="1"/>
-    <row r="25" ht="50.1" customHeight="1"/>
-    <row r="26" ht="50.1" customHeight="1"/>
+    <row r="11" ht="50.1" customHeight="1"/>
+    <row r="12" ht="50.1" customHeight="1"/>
+    <row r="13" ht="50.1" customHeight="1"/>
+    <row r="14" ht="50.1" customHeight="1"/>
+    <row r="15" ht="50.1" customHeight="1"/>
+    <row r="16" ht="50.1" customHeight="1"/>
+    <row r="17" ht="50.1" customHeight="1"/>
+    <row r="18" ht="50.1" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
@@ -3573,7 +3317,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -3584,8 +3328,8 @@
     <col width="27.125" customWidth="1" style="3" min="4" max="4"/>
     <col width="25.25" customWidth="1" style="3" min="5" max="5"/>
     <col width="38.375" customWidth="1" style="3" min="6" max="6"/>
-    <col width="9" customWidth="1" style="3" min="7" max="39"/>
-    <col width="9" customWidth="1" style="3" min="40" max="16384"/>
+    <col width="9" customWidth="1" style="3" min="7" max="57"/>
+    <col width="9" customWidth="1" style="3" min="58" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3623,32 +3367,32 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>505781074908803072</t>
+          <t>505837863247409152</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>505781077161144320</t>
+          <t>505821982186401792</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>505781081657438208</t>
+          <t>505821984224833536</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>505781085390368768</t>
+          <t>505821986317791232</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>505781102122487808</t>
+          <t>505837871821606912</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>01971a5b-23ac-459c-a326-494dcf151fe8</t>
+          <t>9b635642-e704-4214-bdca-c1de4e56dd7d</t>
         </is>
       </c>
     </row>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -9,7 +9,7 @@
     <sheet name="start_before" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="receipt" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="customer" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="membercard" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="membercard" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="employee" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="employee_update" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="card_template" sheetId="7" state="visible" r:id="rId7"/>
@@ -372,8 +372,8 @@
     <col width="13" customWidth="1" style="5" min="4" max="4"/>
     <col width="14.625" customWidth="1" style="5" min="5" max="5"/>
     <col width="53.25" customWidth="1" style="5" min="6" max="6"/>
-    <col width="9" customWidth="1" style="5" min="7" max="48"/>
-    <col width="9" customWidth="1" style="5" min="49" max="16384"/>
+    <col width="9" customWidth="1" style="5" min="7" max="52"/>
+    <col width="9" customWidth="1" style="5" min="53" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -472,7 +472,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -583,7 +583,7 @@
       </c>
       <c r="G2" s="7" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-2a61da7ef9ec37f5435df05756aecbaa', 'responseTime': '2020-09-22 17:40:03', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-80a81b7e35967a3662e1ed5a97068626', 'responseTime': '2020-09-23 09:39:30', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H2" s="4" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G3" s="7" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-5644b17689b3f98b283c02f563c542b5', 'responseTime': '2020-09-22 17:40:04', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-103273aacffc40c1a859ffd439fe3e37', 'responseTime': '2020-09-23 09:39:31', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="G4" s="7" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-833c7e44c74272948a632144d4b02655', 'responseTime': '2020-09-22 17:40:04', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-ed724d4660f6ec760b08396c39428b6c', 'responseTime': '2020-09-23 09:39:32', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="G5" s="7" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-b4fa4c028b20ee4215e9810831855da1', 'responseTime': '2020-09-22 17:40:05', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-5bc25620c6aeea987e9e6ba23f320346', 'responseTime': '2020-09-23 09:39:32', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="G6" s="7" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-a5a1c31f9c91cb14221d40fb0f06fa47', 'responseTime': '2020-09-22 17:40:05', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-7768229c84250d5e323602d19ff267ce', 'responseTime': '2020-09-23 09:39:33', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H6" s="4" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="G7" s="7" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-a5742dbf35cccdfe6ac06ae8443483d3', 'responseTime': '2020-09-22 17:40:06', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-6fd84069d7bc31c8ea0acd8693f75e1e', 'responseTime': '2020-09-23 09:39:34', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-2545474cddf54820341592c8e0cd6b3f', 'responseTime': '2020-09-22 17:40:06', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-214dc3a46db61b032da3051f28769698', 'responseTime': '2020-09-23 09:39:34', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-000c9fd68629e94741cf7a42a41204b6', 'responseTime': '2020-09-22 17:40:08', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-8067e6134dd6045584ead226070f1f71', 'responseTime': '2020-09-23 09:39:35', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-3d0fb75eee90e0d5fb1f17f02dc491cc', 'responseTime': '2020-09-22 17:40:08', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-3e6687d83dd2fcd4d45486f6c2a6a512', 'responseTime': '2020-09-23 09:39:37', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-609e37b3a4d4914382f38c5c4bb11aec', 'responseTime': '2020-09-22 17:40:10', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-f2b7945e7eee15d79258becd2a8b1277', 'responseTime': '2020-09-23 09:39:38', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1228,10 +1228,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -1242,8 +1242,8 @@
     <col width="13" customWidth="1" style="2" min="4" max="4"/>
     <col width="14.625" customWidth="1" style="2" min="5" max="5"/>
     <col width="64.5" customWidth="1" style="2" min="6" max="6"/>
-    <col width="9" customWidth="1" style="2" min="7" max="76"/>
-    <col width="9" customWidth="1" style="2" min="77" max="16384"/>
+    <col width="9" customWidth="1" style="2" min="7" max="80"/>
+    <col width="9" customWidth="1" style="2" min="81" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-0984b3e84cefdc87ab0940601ae40979', 'responseTime': '2020-09-22 17:40:10', 'ret': '0', 'success': '0', 'val': {'id': '505837863247409152'}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-f50486bcec8d91ee4743fb8d29bbd600', 'responseTime': '2020-09-23 09:39:39', 'ret': '0', 'success': '0', 'val': {'id': '506079324589125632'}}</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -1385,12 +1385,12 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>{'msg': 'JSON parse error: For input string: "${time_now}"; nested exception is com.alibaba.fastjson.JSONException: For input string: "${time_now}"', 'requestUUID': 'JY-05fee443c8202090f9512ab194b67ea5', 'responseTime': '2020-09-22 17:40:10', 'ret': 'ERROR_CODE_10001', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-fdaf87d51b45fd1bfe1512cda4adf33d', 'responseTime': '2020-09-23 09:39:41', 'ret': '0', 'success': '0', 'val': {'relationStatus': '1'}}</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>{'msg': 'JSON parse error: For input string: "${time_now}"; nested exception is com.alibaba.fastjson.JSONException: For input string: "${time_now}"', 'requestUUID': 'JY-515553e7e1ece8e87c44ed2dfa03ecf7', 'responseTime': '2020-09-22 17:40:10', 'ret': 'ERROR_CODE_10001', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-b8bb11748482fe2978c7e790defac621', 'responseTime': '2020-09-23 09:39:42', 'ret': '0', 'success': '0', 'val': {'relationStatus': '1'}}</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
@@ -1493,12 +1493,12 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>{'msg': 'JSON parse error: For input string: "${time_now}"; nested exception is com.alibaba.fastjson.JSONException: For input string: "${time_now}"', 'requestUUID': 'JY-34256bdd6c4392287cba62c363ba6d57', 'responseTime': '2020-09-22 17:40:10', 'ret': 'ERROR_CODE_10001', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-57ca05d454b56aa45fe25c3863ad4cc4', 'responseTime': '2020-09-23 09:39:44', 'ret': '0', 'success': '0', 'val': {'relationStatus': '1'}}</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-067bd161b5320fa88fe050263f4eaadc', 'responseTime': '2020-09-22 17:40:11', 'ret': '0', 'success': '0', 'val': []}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-4a0a2440d8d306e6b083e4ee06b9b703', 'responseTime': '2020-09-23 09:39:44', 'ret': '0', 'success': '0', 'val': [{'addCashEventStatus': '0', 'applicableItemId': '', 'applicableItemName': '', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '', 'averagePrice': '', 'balanceAmount': '1000.0000', 'balanceGiftAmount': '0.0000', 'balanceRechargeAmount': '1000.0000', 'balanceTimes': '', 'cardName': '储值卡xyz', 'cardType': '1', 'deleteYn': '1', 'enjoyDiscount': '70', 'expireTime': '253402271999000', 'giftAmount': '0.0000', 'lastAveragePrice': '', 'memberCardTemplateId': '465599316220481536', 'membershipCardCode': 'VIP00224', 'membershipCardId': '506079328099758080', 'membershipCardStatus': '1', 'purchasePrice': '', 'purchaseTimes': '', 'rechargeAmount': '1000.0000', 'upgradeYn': '1', 'useMonth': '9999'}, {'addCashEventStatus': '0', 'applicableItemId': '5', 'applicableItemName': '洗吹', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '全部洗吹项目', 'averagePrice': '20.00', 'balanceAmount': '0', 'balanceGiftAmount': '0', 'balanceRechargeAmount': '0', 'balanceTimes': '100', 'cardName': '计次卡测试卡', 'cardType': '2', 'deleteYn': '1', 'enjoyDiscount': '', 'expireTime': '253402271999000', 'giftAmount': '', 'lastAveragePrice': '20.00', 'memberCardTemplateId': '503611922391625728', 'membershipCardCode': 'VIP00225', 'membershipCardId': '506079337671159808', 'membershipCardStatus': '1', 'purchasePrice': '2000.0000', 'purchaseTimes': '100', 'rechargeAmount': '', 'upgradeYn': '0', 'useMonth': '9999'}, {'addCashEventStatus': '0', 'applicableItemId': '', 'applicableItemName': '', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '', 'averagePrice': '', 'balanceAmount': '0', 'balanceGiftAmount': '0', 'balanceRechargeAmount': '0', 'balanceTimes': '0', 'cardName': '年卡1', 'cardType': '3', 'deleteYn': '1', 'enjoyDiscount': '95', 'expireTime': '1632326399000', 'giftAmount': '', 'lastAveragePrice': '', 'memberCardTemplateId': '463767922616791040', 'membershipCardCode': 'VIP00226', 'membershipCardId': '506079342226173952', 'membershipCardStatus': '1', 'purchasePrice': '1000.0000', 'purchaseTimes': '0', 'rechargeAmount': '', 'upgradeYn': '0', 'useMonth': '12'}]}</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
@@ -1554,9 +1554,147 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="50.1" customHeight="1"/>
-    <row r="8" ht="50.1" customHeight="1"/>
-    <row r="9" ht="50.1" customHeight="1"/>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>/api/rts/member/membershipCard/deleteMembershipCard/V141</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>{"membershipCardId":"${storedCardId}"}</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>删除储值卡</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-495d63df72186b2312323ba70af82bdb', 'responseTime': '2020-09-23 09:39:45', 'ret': '0', 'success': '0', 'val': {}}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>操作成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>/api/rts/member/membershipCard/deleteMembershipCard/V141</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>{"membershipCardId":"${timeCardId}"}</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>删除计次卡</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-fda8840f50fa79bb38ad597c6554a772', 'responseTime': '2020-09-23 09:39:45', 'ret': '0', 'success': '0', 'val': {}}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>操作成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>/api/rts/member/membershipCard/deleteMembershipCard/V141</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>{"membershipCardId":"${yearCardId}"}</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>删除年卡</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-abb3f40583de917b390f14224b46e79c', 'responseTime': '2020-09-23 09:39:46', 'ret': '0', 'success': '0', 'val': {}}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>操作成功</t>
+        </is>
+      </c>
+    </row>
     <row r="10" ht="50.1" customHeight="1"/>
     <row r="11" ht="50.1" customHeight="1"/>
     <row r="12" ht="50.1" customHeight="1"/>
@@ -1615,7 +1753,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -1709,12 +1847,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-0867a9c9aa7a0b2c54f845b753246fc4', 'responseTime': '2020-09-22 17:40:18', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '会员卡不可删除', 'requestUUID': 'JY-b561926e9c914f5be1131c9ea53bc662', 'responseTime': '2020-09-23 09:35:21', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAILED</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -1756,12 +1894,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-ec86f512fc90e29aaa0eff7c38adb4fc', 'responseTime': '2020-09-22 17:40:18', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '会员卡不可删除', 'requestUUID': 'JY-345efbe928ab78731eb13122ff284a7a', 'responseTime': '2020-09-23 09:35:23', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAILED</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
@@ -1803,12 +1941,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-9aa2c65c054cfaeb77d9bd4c0d1b36aa', 'responseTime': '2020-09-22 17:40:19', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '会员卡删除失败', 'requestUUID': 'JY-f2aa70a1c828d100bc12bf4a8e3cbed6', 'responseTime': '2020-09-23 09:35:23', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAILED</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
@@ -1832,7 +1970,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -1845,8 +1983,8 @@
     <col width="64.5" customWidth="1" style="5" min="6" max="6"/>
     <col width="9" customWidth="1" style="5" min="7" max="8"/>
     <col width="29.25" customWidth="1" style="5" min="9" max="9"/>
-    <col width="9" customWidth="1" style="5" min="10" max="61"/>
-    <col width="9" customWidth="1" style="5" min="62" max="16384"/>
+    <col width="9" customWidth="1" style="5" min="10" max="65"/>
+    <col width="9" customWidth="1" style="5" min="66" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="2">
@@ -1942,7 +2080,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-901eab76b10ee41e32db329fac12e83e', 'responseTime': '2020-09-22 17:40:12', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-fd091f38ff1a431c85daa91e7c51aeaa', 'responseTime': '2020-09-23 09:39:47', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1987,7 +2125,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-95b36cbe577a784d25b0de7a400e312e', 'responseTime': '2020-09-22 17:40:13', 'ret': '0', 'success': '0', 'val': [{'employeeCompleteStatus': '1', 'employeeHeadImageUrl': 'http://ossuat.round-table-union.com/343732200141791232/employeeLogoImage/343732200062099456/7a309a021eac10928e6ccbb2a0a6e332.jpg', 'employeeId': '343732200062099456', 'employeeNickName': '吴迪', 'positionName': '店主', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505837871821606912', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505837101718032384', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505836801137430528', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505836109618335744', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505835202264551424', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505833859869167616', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505833286159683584', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505830814775103488', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505824047399817216', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505821997467291648', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505774167163785216', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505378264229728256', 'employeeNickName': '牛哥', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505356577140494336', 'employeeNickName': '琅', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '464854987290226688', 'employeeNickName': '王磊1', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '465985919050485760', 'employeeNickName': '哈哈', 'positionName': '总监', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '495635425165332480', 'employeeNickName': '嘿嘿', 'positionName': '美发师', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505478695282921472', 'employeeNickName': '剑琅联盟', 'positionName': '总监', 'showStatus': '1', 'workStatus': '1'}]}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-5cfccf3a3ac6ae2e3ae051d71cc711d0', 'responseTime': '2020-09-23 09:39:48', 'ret': '0', 'success': '0', 'val': [{'employeeCompleteStatus': '1', 'employeeHeadImageUrl': 'http://ossuat.round-table-union.com/343732200141791232/employeeLogoImage/343732200062099456/7a309a021eac10928e6ccbb2a0a6e332.jpg', 'employeeId': '343732200062099456', 'employeeNickName': '吴迪', 'positionName': '店主', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506079357838413824', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506078445141086208', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506078207407935488', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506077779677007872', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506073717715881984', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505836801137430528', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505836109618335744', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505835202264551424', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505833859869167616', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505833286159683584', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505830814775103488', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505824047399817216', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505821997467291648', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505774167163785216', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505378264229728256', 'employeeNickName': '牛哥', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505356577140494336', 'employeeNickName': '琅', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '464854987290226688', 'employeeNickName': '王磊1', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '465985919050485760', 'employeeNickName': '哈哈', 'positionName': '总监', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '495635425165332480', 'employeeNickName': '嘿嘿', 'positionName': '美发师', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505478695282921472', 'employeeNickName': '剑琅联盟', 'positionName': '总监', 'showStatus': '1', 'workStatus': '1'}]}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2047,7 +2185,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'msg': '请填写姓名', 'requestUUID': 'JY-011307d7a4ef072a853fd3af6ed947b1', 'responseTime': '2020-09-22 17:40:13', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '请填写姓名', 'requestUUID': 'JY-36d0b87df1123baa551a7eaafccec17b', 'responseTime': '2020-09-23 09:39:49', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2107,7 +2245,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'msg': '手机号不能为空', 'requestUUID': 'JY-5cd94b8457ddd7f6203e5586d74719a6', 'responseTime': '2020-09-22 17:40:13', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '手机号不能为空', 'requestUUID': 'JY-cb66688c9b53cbc2e92f2ac31843ff0e', 'responseTime': '2020-09-23 09:39:49', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2167,7 +2305,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'msg': '请选择员工头衔', 'requestUUID': 'JY-ecd0284bce2536bc24c89c2d0c26e68f', 'responseTime': '2020-09-22 17:40:14', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '请选择员工头衔', 'requestUUID': 'JY-e3030bf6be938fb31c3da5c0c6f1069a', 'responseTime': '2020-09-23 09:39:49', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2227,7 +2365,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'msg': '请选择权限', 'requestUUID': 'JY-5c88c2a029883ecc645da44e4631fc3d', 'responseTime': '2020-09-22 17:40:14', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '请选择权限', 'requestUUID': 'JY-096a6a4cba871afa936882361a789bc3', 'responseTime': '2020-09-23 09:39:49', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2287,7 +2425,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'msg': '金额错误', 'requestUUID': 'JY-cbc9a6554034cee4562d2966fdec8895', 'responseTime': '2020-09-22 17:40:14', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '金额错误', 'requestUUID': 'JY-7739aceb4d47a48ed350f24d37cef62d', 'responseTime': '2020-09-23 09:39:49', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2347,7 +2485,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'msg': '该手机号已被注册', 'requestUUID': 'JY-da4ca845fc2e095af13c25c58e825e30', 'responseTime': '2020-09-22 17:40:14', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '该手机号已被注册', 'requestUUID': 'JY-97a52df375a60eb8caa2d0ca7b494b8d', 'responseTime': '2020-09-23 09:39:50', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2407,7 +2545,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-735193f3eec42b3393f9bb6241457022', 'responseTime': '2020-09-22 17:40:15', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-2b4567d565923e75153c56eb312225b7', 'responseTime': '2020-09-23 09:39:50', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2467,7 +2605,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-ee7fb639f296ceab6013db83beb4b370', 'responseTime': '2020-09-22 17:40:15', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-8f90e25ff65c350c1ca80107399d5edf', 'responseTime': '2020-09-23 09:39:50', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2496,7 +2634,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -2509,8 +2647,8 @@
     <col width="64.5" customWidth="1" style="5" min="6" max="6"/>
     <col width="9" customWidth="1" style="5" min="7" max="8"/>
     <col width="29.25" customWidth="1" style="5" min="9" max="9"/>
-    <col width="9" customWidth="1" style="5" min="10" max="61"/>
-    <col width="9" customWidth="1" style="5" min="62" max="16384"/>
+    <col width="9" customWidth="1" style="5" min="10" max="65"/>
+    <col width="9" customWidth="1" style="5" min="66" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="2">
@@ -2576,7 +2714,7 @@
  "workStatus": "1",
  "consumeViewStatus": "0",
  "employeeId": "${employeeId}",
- "employeeMobile": "${phone_num]",
+ "employeeMobile": "${phone_num}",
  "roleId": "2",
  "basicSalary": "1000.0000",
  "viewCellphoneNumberYn": "1",
@@ -2606,7 +2744,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-aeb4f93f1550c23a6561967d947f41bc', 'responseTime': '2020-09-22 17:40:15', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-078b5c4802aa9354dd9f326a6b5a4f26', 'responseTime': '2020-09-23 09:39:51', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2636,7 +2774,7 @@
  "workStatus": "1",
  "consumeViewStatus": "0",
  "employeeId": "${employeeId}",
- "employeeMobile": "${phone_num]",
+ "employeeMobile": "${phone_num}",
  "roleId": "3",
  "basicSalary": "1000.0000",
  "viewCellphoneNumberYn": "1",
@@ -2666,7 +2804,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-dc55ec8908f9f41b14149c1cf6783b0f', 'responseTime': '2020-09-22 17:40:16', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-6802e1627b9cd67a9da7b0169388361b', 'responseTime': '2020-09-23 09:39:51', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2696,7 +2834,7 @@
  "workStatus": "1",
  "consumeViewStatus": "0",
  "employeeId": "${employeeId}",
- "employeeMobile": "${phone_num]",
+ "employeeMobile": "${phone_num}",
  "roleId": "2",
  "basicSalary": "1000.0000",
  "viewCellphoneNumberYn": "1",
@@ -2726,7 +2864,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-45ed75a0ccf2a74fa06ab103d54710b5', 'responseTime': '2020-09-22 17:40:17', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-858e5977f774c1058d761663206e7172', 'responseTime': '2020-09-23 09:39:52', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2756,7 +2894,7 @@
  "workStatus": "1",
  "consumeViewStatus": "0",
  "employeeId": "${employeeId}",
- "employeeMobile": "${phone_num]",
+ "employeeMobile": "${phone_num}",
  "roleId": "2",
  "basicSalary": "10000.0000",
  "viewCellphoneNumberYn": "1",
@@ -2786,7 +2924,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-40d2fa7bb280d2d4ea58c132bb41d196', 'responseTime': '2020-09-22 17:40:17', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-20821856c97e6630181fcc2137d13354', 'responseTime': '2020-09-23 09:39:53', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2846,7 +2984,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-ebdd93ddb2e2596f330f27e6156dd864', 'responseTime': '2020-09-22 17:40:17', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-d369396706fa3a94a0e2d4d8df0dfd31', 'responseTime': '2020-09-23 09:39:54', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2891,7 +3029,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-0813b47141ce6fa5c5307ca4abe38408', 'responseTime': '2020-09-22 17:40:17', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-39aa926363822b86ca392e2bb2b637ca', 'responseTime': '2020-09-23 09:39:55', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2920,7 +3058,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -2933,8 +3071,8 @@
     <col width="64.5" customWidth="1" style="2" min="6" max="6"/>
     <col width="9" customWidth="1" style="2" min="7" max="8"/>
     <col width="29.25" customWidth="1" style="2" min="9" max="9"/>
-    <col width="9" customWidth="1" style="2" min="10" max="61"/>
-    <col width="9" customWidth="1" style="2" min="62" max="16384"/>
+    <col width="9" customWidth="1" style="2" min="10" max="65"/>
+    <col width="9" customWidth="1" style="2" min="66" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3328,8 +3466,8 @@
     <col width="27.125" customWidth="1" style="3" min="4" max="4"/>
     <col width="25.25" customWidth="1" style="3" min="5" max="5"/>
     <col width="38.375" customWidth="1" style="3" min="6" max="6"/>
-    <col width="9" customWidth="1" style="3" min="7" max="57"/>
-    <col width="9" customWidth="1" style="3" min="58" max="16384"/>
+    <col width="9" customWidth="1" style="3" min="7" max="61"/>
+    <col width="9" customWidth="1" style="3" min="62" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3367,32 +3505,32 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>505837863247409152</t>
+          <t>506079324589125632</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>505821982186401792</t>
+          <t>506079328099758080</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>505821984224833536</t>
+          <t>506079337671159808</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>505821986317791232</t>
+          <t>506079342226173952</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>505837871821606912</t>
+          <t>506079357838413824</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9b635642-e704-4214-bdca-c1de4e56dd7d</t>
+          <t>110ab27c-c24c-41cc-a1a9-37d3e2ef274b</t>
         </is>
       </c>
     </row>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="start_before" sheetId="1" state="visible" r:id="rId1"/>
@@ -358,22 +358,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="9" customWidth="1" style="5" min="1" max="1"/>
-    <col width="72" customWidth="1" style="5" min="2" max="2"/>
-    <col width="116" customWidth="1" style="5" min="3" max="3"/>
-    <col width="13" customWidth="1" style="5" min="4" max="4"/>
-    <col width="14.625" customWidth="1" style="5" min="5" max="5"/>
-    <col width="53.25" customWidth="1" style="5" min="6" max="6"/>
-    <col width="9" customWidth="1" style="5" min="7" max="52"/>
-    <col width="9" customWidth="1" style="5" min="53" max="16384"/>
+    <col width="9" customWidth="1" style="4" min="1" max="1"/>
+    <col width="72" customWidth="1" style="4" min="2" max="2"/>
+    <col width="116" customWidth="1" style="4" min="3" max="3"/>
+    <col width="13" customWidth="1" style="4" min="4" max="4"/>
+    <col width="14.625" customWidth="1" style="4" min="5" max="5"/>
+    <col width="53.25" customWidth="1" style="4" min="6" max="6"/>
+    <col width="9" customWidth="1" style="4" min="7" max="54"/>
+    <col width="9" customWidth="1" style="4" min="55" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -423,10 +423,34 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="50.1" customHeight="1"/>
-    <row r="3" ht="50.1" customHeight="1"/>
-    <row r="4" ht="50.1" customHeight="1"/>
-    <row r="5" ht="50.1" customHeight="1"/>
+    <row r="2" ht="50.1" customHeight="1">
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>查询顾客列表，获取需要开单的顾客id</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="50.1" customHeight="1">
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>获取店铺paymenttype</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="50.1" customHeight="1">
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>获取店铺itemSubId</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="50.1" customHeight="1">
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>获取店主employeeId</t>
+        </is>
+      </c>
+    </row>
     <row r="6" ht="50.1" customHeight="1"/>
     <row r="7" ht="50.1" customHeight="1"/>
     <row r="8" ht="50.1" customHeight="1"/>
@@ -472,7 +496,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -583,7 +607,7 @@
       </c>
       <c r="G2" s="7" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-80a81b7e35967a3662e1ed5a97068626', 'responseTime': '2020-09-23 09:39:30', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-835d67445acd31efe574c7ad3c88c4ed', 'responseTime': '2020-09-23 11:53:36', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H2" s="4" t="inlineStr">
@@ -652,7 +676,7 @@
       </c>
       <c r="G3" s="7" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-103273aacffc40c1a859ffd439fe3e37', 'responseTime': '2020-09-23 09:39:31', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-a5dc34d065b61d41244a1ed28f95b0b1', 'responseTime': '2020-09-23 11:53:37', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
@@ -718,7 +742,7 @@
       </c>
       <c r="G4" s="7" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-ed724d4660f6ec760b08396c39428b6c', 'responseTime': '2020-09-23 09:39:32', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-de11b56deaabe508b902d70bd005a06c', 'responseTime': '2020-09-23 11:53:37', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
@@ -792,7 +816,7 @@
       </c>
       <c r="G5" s="7" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-5bc25620c6aeea987e9e6ba23f320346', 'responseTime': '2020-09-23 09:39:32', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-919f8eb46220583508959fe82ef9b0ad', 'responseTime': '2020-09-23 11:53:38', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
@@ -859,7 +883,7 @@
       </c>
       <c r="G6" s="7" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-7768229c84250d5e323602d19ff267ce', 'responseTime': '2020-09-23 09:39:33', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-06f7350cf92aad8234c32be2bc5a2f6f', 'responseTime': '2020-09-23 11:53:38', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H6" s="4" t="inlineStr">
@@ -930,7 +954,7 @@
       </c>
       <c r="G7" s="7" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-6fd84069d7bc31c8ea0acd8693f75e1e', 'responseTime': '2020-09-23 09:39:34', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-4a9920126404aa69d55d644a6335e91f', 'responseTime': '2020-09-23 11:53:41', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr">
@@ -997,7 +1021,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-214dc3a46db61b032da3051f28769698', 'responseTime': '2020-09-23 09:39:34', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-71aefe0b4b2784feafedae5d0fcadd79', 'responseTime': '2020-09-23 11:53:42', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1066,7 +1090,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-8067e6134dd6045584ead226070f1f71', 'responseTime': '2020-09-23 09:39:35', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-3ca6d0e4584834f0779ec663d561b323', 'responseTime': '2020-09-23 11:53:43', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1131,7 +1155,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-3e6687d83dd2fcd4d45486f6c2a6a512', 'responseTime': '2020-09-23 09:39:37', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-26d4ee9aef5c60905a35a0b5db92b953', 'responseTime': '2020-09-23 11:53:43', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1202,7 +1226,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-f2b7945e7eee15d79258becd2a8b1277', 'responseTime': '2020-09-23 09:39:38', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-2b9986dd952c98fc98d2b5e53a8ca428', 'responseTime': '2020-09-23 11:53:43', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1230,8 +1254,8 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -1242,8 +1266,8 @@
     <col width="13" customWidth="1" style="2" min="4" max="4"/>
     <col width="14.625" customWidth="1" style="2" min="5" max="5"/>
     <col width="64.5" customWidth="1" style="2" min="6" max="6"/>
-    <col width="9" customWidth="1" style="2" min="7" max="80"/>
-    <col width="9" customWidth="1" style="2" min="81" max="16384"/>
+    <col width="9" customWidth="1" style="2" min="7" max="82"/>
+    <col width="9" customWidth="1" style="2" min="83" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1330,7 +1354,7 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-f50486bcec8d91ee4743fb8d29bbd600', 'responseTime': '2020-09-23 09:39:39', 'ret': '0', 'success': '0', 'val': {'id': '506079324589125632'}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-98025ef44747a65182d9bc41a48bf5c4', 'responseTime': '2020-09-23 11:52:05', 'ret': '0', 'success': '0', 'val': {'id': '506112654764273664'}}</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -1385,7 +1409,7 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-fdaf87d51b45fd1bfe1512cda4adf33d', 'responseTime': '2020-09-23 09:39:41', 'ret': '0', 'success': '0', 'val': {'relationStatus': '1'}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-a2f9ab9b43ac0002671282c931a68cc1', 'responseTime': '2020-09-23 11:52:06', 'ret': '0', 'success': '0', 'val': {'relationStatus': '1'}}</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
@@ -1439,7 +1463,7 @@
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-b8bb11748482fe2978c7e790defac621', 'responseTime': '2020-09-23 09:39:42', 'ret': '0', 'success': '0', 'val': {'relationStatus': '1'}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-fe98f266cbb643b8a353ea6407665ea0', 'responseTime': '2020-09-23 11:52:07', 'ret': '0', 'success': '0', 'val': {'relationStatus': '1'}}</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
@@ -1493,7 +1517,7 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-57ca05d454b56aa45fe25c3863ad4cc4', 'responseTime': '2020-09-23 09:39:44', 'ret': '0', 'success': '0', 'val': {'relationStatus': '1'}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-55bdf6a0e4598095236a68419ccb51ea', 'responseTime': '2020-09-23 11:52:07', 'ret': '0', 'success': '0', 'val': {'relationStatus': '1'}}</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
@@ -1540,7 +1564,7 @@
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-4a0a2440d8d306e6b083e4ee06b9b703', 'responseTime': '2020-09-23 09:39:44', 'ret': '0', 'success': '0', 'val': [{'addCashEventStatus': '0', 'applicableItemId': '', 'applicableItemName': '', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '', 'averagePrice': '', 'balanceAmount': '1000.0000', 'balanceGiftAmount': '0.0000', 'balanceRechargeAmount': '1000.0000', 'balanceTimes': '', 'cardName': '储值卡xyz', 'cardType': '1', 'deleteYn': '1', 'enjoyDiscount': '70', 'expireTime': '253402271999000', 'giftAmount': '0.0000', 'lastAveragePrice': '', 'memberCardTemplateId': '465599316220481536', 'membershipCardCode': 'VIP00224', 'membershipCardId': '506079328099758080', 'membershipCardStatus': '1', 'purchasePrice': '', 'purchaseTimes': '', 'rechargeAmount': '1000.0000', 'upgradeYn': '1', 'useMonth': '9999'}, {'addCashEventStatus': '0', 'applicableItemId': '5', 'applicableItemName': '洗吹', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '全部洗吹项目', 'averagePrice': '20.00', 'balanceAmount': '0', 'balanceGiftAmount': '0', 'balanceRechargeAmount': '0', 'balanceTimes': '100', 'cardName': '计次卡测试卡', 'cardType': '2', 'deleteYn': '1', 'enjoyDiscount': '', 'expireTime': '253402271999000', 'giftAmount': '', 'lastAveragePrice': '20.00', 'memberCardTemplateId': '503611922391625728', 'membershipCardCode': 'VIP00225', 'membershipCardId': '506079337671159808', 'membershipCardStatus': '1', 'purchasePrice': '2000.0000', 'purchaseTimes': '100', 'rechargeAmount': '', 'upgradeYn': '0', 'useMonth': '9999'}, {'addCashEventStatus': '0', 'applicableItemId': '', 'applicableItemName': '', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '', 'averagePrice': '', 'balanceAmount': '0', 'balanceGiftAmount': '0', 'balanceRechargeAmount': '0', 'balanceTimes': '0', 'cardName': '年卡1', 'cardType': '3', 'deleteYn': '1', 'enjoyDiscount': '95', 'expireTime': '1632326399000', 'giftAmount': '', 'lastAveragePrice': '', 'memberCardTemplateId': '463767922616791040', 'membershipCardCode': 'VIP00226', 'membershipCardId': '506079342226173952', 'membershipCardStatus': '1', 'purchasePrice': '1000.0000', 'purchaseTimes': '0', 'rechargeAmount': '', 'upgradeYn': '0', 'useMonth': '12'}]}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-a59f6de2a0c5bb132024470ec3d46927', 'responseTime': '2020-09-23 11:52:07', 'ret': '0', 'success': '0', 'val': [{'addCashEventStatus': '0', 'applicableItemId': '', 'applicableItemName': '', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '', 'averagePrice': '', 'balanceAmount': '1000.0000', 'balanceGiftAmount': '0.0000', 'balanceRechargeAmount': '1000.0000', 'balanceTimes': '', 'cardName': '储值卡xyz', 'cardType': '1', 'deleteYn': '1', 'enjoyDiscount': '70', 'expireTime': '253402271999000', 'giftAmount': '0.0000', 'lastAveragePrice': '', 'memberCardTemplateId': '465599316220481536', 'membershipCardCode': 'VIP00227', 'membershipCardId': '506112656114839552', 'membershipCardStatus': '1', 'purchasePrice': '', 'purchaseTimes': '', 'rechargeAmount': '1000.0000', 'upgradeYn': '1', 'useMonth': '9999'}, {'addCashEventStatus': '0', 'applicableItemId': '5', 'applicableItemName': '洗吹', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '全部洗吹项目', 'averagePrice': '20.00', 'balanceAmount': '0', 'balanceGiftAmount': '0', 'balanceRechargeAmount': '0', 'balanceTimes': '100', 'cardName': '计次卡测试卡', 'cardType': '2', 'deleteYn': '1', 'enjoyDiscount': '', 'expireTime': '253402271999000', 'giftAmount': '', 'lastAveragePrice': '20.00', 'memberCardTemplateId': '503611922391625728', 'membershipCardCode': 'VIP00228', 'membershipCardId': '506112658446872576', 'membershipCardStatus': '1', 'purchasePrice': '2000.0000', 'purchaseTimes': '100', 'rechargeAmount': '', 'upgradeYn': '0', 'useMonth': '9999'}, {'addCashEventStatus': '0', 'applicableItemId': '', 'applicableItemName': '', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '', 'averagePrice': '', 'balanceAmount': '0', 'balanceGiftAmount': '0', 'balanceRechargeAmount': '0', 'balanceTimes': '0', 'cardName': '年卡1', 'cardType': '3', 'deleteYn': '1', 'enjoyDiscount': '95', 'expireTime': '1632326399000', 'giftAmount': '', 'lastAveragePrice': '', 'memberCardTemplateId': '463767922616791040', 'membershipCardCode': 'VIP00229', 'membershipCardId': '506112662049779712', 'membershipCardStatus': '1', 'purchasePrice': '1000.0000', 'purchaseTimes': '0', 'rechargeAmount': '', 'upgradeYn': '0', 'useMonth': '12'}]}</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
@@ -1587,7 +1611,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-495d63df72186b2312323ba70af82bdb', 'responseTime': '2020-09-23 09:39:45', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-35f7b950d4a7dbafb56ceac4be459846', 'responseTime': '2020-09-23 11:52:08', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1634,7 +1658,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-fda8840f50fa79bb38ad597c6554a772', 'responseTime': '2020-09-23 09:39:45', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-82c189dc3974b8c3d36edd484af45675', 'responseTime': '2020-09-23 11:52:09', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1681,7 +1705,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-abb3f40583de917b390f14224b46e79c', 'responseTime': '2020-09-23 09:39:46', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-a2be052f3446417c07819428e80a205c', 'responseTime': '2020-09-23 11:52:10', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1969,8 +1993,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -1983,8 +2007,8 @@
     <col width="64.5" customWidth="1" style="5" min="6" max="6"/>
     <col width="9" customWidth="1" style="5" min="7" max="8"/>
     <col width="29.25" customWidth="1" style="5" min="9" max="9"/>
-    <col width="9" customWidth="1" style="5" min="10" max="65"/>
-    <col width="9" customWidth="1" style="5" min="66" max="16384"/>
+    <col width="9" customWidth="1" style="5" min="10" max="67"/>
+    <col width="9" customWidth="1" style="5" min="68" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="2">
@@ -2080,7 +2104,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-fd091f38ff1a431c85daa91e7c51aeaa', 'responseTime': '2020-09-23 09:39:47', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-a64f37cd1bce5d83ea128d219b978e06', 'responseTime': '2020-09-23 11:52:10', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2125,7 +2149,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-5cfccf3a3ac6ae2e3ae051d71cc711d0', 'responseTime': '2020-09-23 09:39:48', 'ret': '0', 'success': '0', 'val': [{'employeeCompleteStatus': '1', 'employeeHeadImageUrl': 'http://ossuat.round-table-union.com/343732200141791232/employeeLogoImage/343732200062099456/7a309a021eac10928e6ccbb2a0a6e332.jpg', 'employeeId': '343732200062099456', 'employeeNickName': '吴迪', 'positionName': '店主', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506079357838413824', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506078445141086208', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506078207407935488', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506077779677007872', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506073717715881984', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505836801137430528', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505836109618335744', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505835202264551424', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505833859869167616', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505833286159683584', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505830814775103488', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505824047399817216', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505821997467291648', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505774167163785216', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505378264229728256', 'employeeNickName': '牛哥', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505356577140494336', 'employeeNickName': '琅', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '464854987290226688', 'employeeNickName': '王磊1', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '465985919050485760', 'employeeNickName': '哈哈', 'positionName': '总监', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '495635425165332480', 'employeeNickName': '嘿嘿', 'positionName': '美发师', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505478695282921472', 'employeeNickName': '剑琅联盟', 'positionName': '总监', 'showStatus': '1', 'workStatus': '1'}]}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-bde3d9ea83874c179e47d68c45c19ba8', 'responseTime': '2020-09-23 11:52:11', 'ret': '0', 'success': '0', 'val': [{'employeeCompleteStatus': '1', 'employeeHeadImageUrl': 'http://ossuat.round-table-union.com/343732200141791232/employeeLogoImage/343732200062099456/7a309a021eac10928e6ccbb2a0a6e332.jpg', 'employeeId': '343732200062099456', 'employeeNickName': '吴迪', 'positionName': '店主', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506112674977665024', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506083042639335424', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506079357838413824', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506078445141086208', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506077779677007872', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506073717715881984', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505836801137430528', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505836109618335744', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505835202264551424', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505833859869167616', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505833286159683584', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505830814775103488', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505824047399817216', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505821997467291648', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505774167163785216', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505378264229728256', 'employeeNickName': '牛哥', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505356577140494336', 'employeeNickName': '琅', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '464854987290226688', 'employeeNickName': '王磊1', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '465985919050485760', 'employeeNickName': '哈哈', 'positionName': '总监', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '495635425165332480', 'employeeNickName': '嘿嘿', 'positionName': '美发师', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505478695282921472', 'employeeNickName': '剑琅联盟', 'positionName': '总监', 'showStatus': '1', 'workStatus': '1'}]}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2185,7 +2209,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'msg': '请填写姓名', 'requestUUID': 'JY-36d0b87df1123baa551a7eaafccec17b', 'responseTime': '2020-09-23 09:39:49', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '请填写姓名', 'requestUUID': 'JY-08451a3eae6a46e73d1b5811a79140d0', 'responseTime': '2020-09-23 11:52:11', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2245,7 +2269,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'msg': '手机号不能为空', 'requestUUID': 'JY-cb66688c9b53cbc2e92f2ac31843ff0e', 'responseTime': '2020-09-23 09:39:49', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '手机号不能为空', 'requestUUID': 'JY-8a147b8cdff861ea78de8d34c6c242c5', 'responseTime': '2020-09-23 11:52:11', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2305,7 +2329,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'msg': '请选择员工头衔', 'requestUUID': 'JY-e3030bf6be938fb31c3da5c0c6f1069a', 'responseTime': '2020-09-23 09:39:49', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '请选择员工头衔', 'requestUUID': 'JY-b492f2ab6ae8118bb7dd7f904462f37a', 'responseTime': '2020-09-23 11:52:12', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2365,7 +2389,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'msg': '请选择权限', 'requestUUID': 'JY-096a6a4cba871afa936882361a789bc3', 'responseTime': '2020-09-23 09:39:49', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '请选择权限', 'requestUUID': 'JY-b937ffea33194f0929c46ae9f333b892', 'responseTime': '2020-09-23 11:52:12', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2425,7 +2449,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'msg': '金额错误', 'requestUUID': 'JY-7739aceb4d47a48ed350f24d37cef62d', 'responseTime': '2020-09-23 09:39:49', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '金额错误', 'requestUUID': 'JY-24dce10700ad9882b0206c4602abb471', 'responseTime': '2020-09-23 11:52:12', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2485,7 +2509,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'msg': '该手机号已被注册', 'requestUUID': 'JY-97a52df375a60eb8caa2d0ca7b494b8d', 'responseTime': '2020-09-23 09:39:50', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '该手机号已被注册', 'requestUUID': 'JY-863a558f2f3dd63822f98cdd781f7538', 'responseTime': '2020-09-23 11:52:13', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2545,7 +2569,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-2b4567d565923e75153c56eb312225b7', 'responseTime': '2020-09-23 09:39:50', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-930b73a7097726fa8d64698fa6218747', 'responseTime': '2020-09-23 11:52:13', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2605,7 +2629,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-8f90e25ff65c350c1ca80107399d5edf', 'responseTime': '2020-09-23 09:39:50', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-667013b5b65f0d0568de2351748242cb', 'responseTime': '2020-09-23 11:52:13', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2634,7 +2658,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -2647,8 +2671,8 @@
     <col width="64.5" customWidth="1" style="5" min="6" max="6"/>
     <col width="9" customWidth="1" style="5" min="7" max="8"/>
     <col width="29.25" customWidth="1" style="5" min="9" max="9"/>
-    <col width="9" customWidth="1" style="5" min="10" max="65"/>
-    <col width="9" customWidth="1" style="5" min="66" max="16384"/>
+    <col width="9" customWidth="1" style="5" min="10" max="67"/>
+    <col width="9" customWidth="1" style="5" min="68" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="2">
@@ -2744,7 +2768,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-078b5c4802aa9354dd9f326a6b5a4f26', 'responseTime': '2020-09-23 09:39:51', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-527713ca04ffaf35fccfd9ad81a7002c', 'responseTime': '2020-09-23 11:52:13', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2804,7 +2828,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-6802e1627b9cd67a9da7b0169388361b', 'responseTime': '2020-09-23 09:39:51', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-187d82e228eeac0ab21e5c2630be3346', 'responseTime': '2020-09-23 11:52:15', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2864,7 +2888,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-858e5977f774c1058d761663206e7172', 'responseTime': '2020-09-23 09:39:52', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-d7c8d463abdcc3a18e75558d3218f1f4', 'responseTime': '2020-09-23 11:52:16', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2924,7 +2948,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-20821856c97e6630181fcc2137d13354', 'responseTime': '2020-09-23 09:39:53', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-227daaef597679e55fa9a16fc6a7933a', 'responseTime': '2020-09-23 11:52:16', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2984,7 +3008,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-d369396706fa3a94a0e2d4d8df0dfd31', 'responseTime': '2020-09-23 09:39:54', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-bbf4de4ae676d2f496c0f4646f29e816', 'responseTime': '2020-09-23 11:52:16', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -3029,7 +3053,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-39aa926363822b86ca392e2bb2b637ca', 'responseTime': '2020-09-23 09:39:55', 'ret': '0', 'success': '0', 'val': {}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-51c662ac8db595b0b0717e91e32d440a', 'responseTime': '2020-09-23 11:52:17', 'ret': '0', 'success': '0', 'val': {}}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -3057,8 +3081,8 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -3071,8 +3095,8 @@
     <col width="64.5" customWidth="1" style="2" min="6" max="6"/>
     <col width="9" customWidth="1" style="2" min="7" max="8"/>
     <col width="29.25" customWidth="1" style="2" min="9" max="9"/>
-    <col width="9" customWidth="1" style="2" min="10" max="65"/>
-    <col width="9" customWidth="1" style="2" min="66" max="16384"/>
+    <col width="9" customWidth="1" style="2" min="10" max="67"/>
+    <col width="9" customWidth="1" style="2" min="68" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3455,7 +3479,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -3466,8 +3490,8 @@
     <col width="27.125" customWidth="1" style="3" min="4" max="4"/>
     <col width="25.25" customWidth="1" style="3" min="5" max="5"/>
     <col width="38.375" customWidth="1" style="3" min="6" max="6"/>
-    <col width="9" customWidth="1" style="3" min="7" max="61"/>
-    <col width="9" customWidth="1" style="3" min="62" max="16384"/>
+    <col width="9" customWidth="1" style="3" min="7" max="63"/>
+    <col width="9" customWidth="1" style="3" min="64" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3505,32 +3529,32 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>506079324589125632</t>
+          <t>506112654764273664</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>506079328099758080</t>
+          <t>506112656114839552</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>506079337671159808</t>
+          <t>506112658446872576</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>506079342226173952</t>
+          <t>506112662049779712</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>506079357838413824</t>
+          <t>506112674977665024</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>110ab27c-c24c-41cc-a1a9-37d3e2ef274b</t>
+          <t>a3fd9bd5-4c0b-431b-b9ae-13dc778b9999</t>
         </is>
       </c>
     </row>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="start_before" sheetId="1" r:id="rId1"/>
     <sheet name="receipt" sheetId="2" r:id="rId2"/>
     <sheet name="customer" sheetId="3" r:id="rId3"/>
-    <sheet name="membercard" sheetId="4" r:id="rId4"/>
+    <sheet name="membercard" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="employee" sheetId="5" r:id="rId5"/>
     <sheet name="employee_update" sheetId="6" r:id="rId6"/>
     <sheet name="card_template" sheetId="7" r:id="rId7"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="183">
   <si>
     <t>case_id</t>
   </si>
@@ -1846,7 +1846,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2035,9 +2035,93 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2090,7 +2174,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -9,24 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="start_before" sheetId="1" r:id="rId1"/>
     <sheet name="receipt" sheetId="2" r:id="rId2"/>
     <sheet name="customer" sheetId="3" r:id="rId3"/>
-    <sheet name="membercard" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="membercard" sheetId="4" r:id="rId4"/>
     <sheet name="employee" sheetId="5" r:id="rId5"/>
     <sheet name="employee_update" sheetId="6" r:id="rId6"/>
     <sheet name="card_template" sheetId="7" r:id="rId7"/>
     <sheet name="init" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="183">
   <si>
     <t>case_id</t>
   </si>
@@ -55,44 +55,12 @@
     <t>msg</t>
   </si>
   <si>
-    <t>查询顾客列表，获取需要开单的顾客id</t>
-  </si>
-  <si>
-    <t>获取店铺paymenttype</t>
-  </si>
-  <si>
-    <t>获取店铺itemSubId</t>
-  </si>
-  <si>
-    <t>获取店主employeeId</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>/api/rts/trade/receipt/createReceipt/V141</t>
   </si>
   <si>
-    <t>{
- "receiptPayment": [{
-  "paymentType": "456084858905566471",
-  "netAmount": 20
- }],
- "gender": "0",
- "customerType": "1",
- "billingTime": ${time_now},
- "receiptItem": [{
-  "countingPayment": [],
-  "itemSubName": "洗洗洗洗",
-  "serviceEmployee": [],
-  "itemCount": 1,
-  "itemPrice": "20.00",
-  "itemName": "洗吹",
-  "itemSubId": "463767356746289152",
-  "itemNameId": "5"
- }]}</t>
-  </si>
-  <si>
     <t>散客无服务人员开单</t>
   </si>
   <si>
@@ -112,31 +80,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>{
- "customerType": "1",
- "billingTime": ${time_now},
- "gender": "0",
- "receiptItem": [{
-  "itemName": "洗吹",
-  "itemSubName": "洗洗洗洗",
-  "itemPrice": "20.00",
-  "itemNameId": "5",
-  "serviceEmployee": [{
-   "appointServiceYn": "0",
-   "typeOfWork": "3",
-   "employeeId": "343732200062099456"
-  }],
-  "itemCount": 1,
-  "itemSubId": "463767356746289152",
-  "countingPayment": []
- }],
- "receiptPayment": [{
-  "paymentType": "456084858905566471",
-  "netAmount": 20
- }]
-}</t>
   </si>
   <si>
     <t>散客有服务人员（大工）开单</t>
@@ -418,20 +361,562 @@
     <t>/api/rts/member/membership/addMembership/V125</t>
   </si>
   <si>
+    <t>新建顾客无生日</t>
+  </si>
+  <si>
+    <t>/api/rts/member/membershipCard/purchaseNewCard/V141</t>
+  </si>
+  <si>
+    <t>新办储值卡</t>
+  </si>
+  <si>
     <t>{
- "membershipMobile": "${phone_num}",
- "gender": "0",
- "membershipName": "啦啦啦"
+ "cardTemplateId": "503611922391625728",
+ "employeeIdList": ["343732200062099456"],
+ "journalDate":${time_now},
+ "membershipId": "${memberId}",
+ "systemDictionaryId": "456084858905566471",
+ "purchaseAmount": "2000.0000"
 }</t>
   </si>
   <si>
-    <t>新建顾客无生日</t>
-  </si>
-  <si>
-    <t>{'msg': '操作成功', 'requestUUID': 'JY-98025ef44747a65182d9bc41a48bf5c4', 'responseTime': '2020-09-23 11:52:05', 'ret': '0', 'success': '0', 'val': {'id': '506112654764273664'}}</t>
-  </si>
-  <si>
-    <t>/api/rts/member/membershipCard/purchaseNewCard/V141</t>
+    <t>新办计次卡</t>
+  </si>
+  <si>
+    <t>{
+ "journalDate":${time_now},
+ "cardTemplateId": "463767922616791040",
+ "employeeIdList": ["343732200062099456"],
+ "membershipId": "${memberId}",
+ "systemDictionaryId": "456084858905566471",
+ "purchaseAmount": "1000.0000"
+}</t>
+  </si>
+  <si>
+    <t>新办年卡</t>
+  </si>
+  <si>
+    <t>{'msg': '操作成功', 'requestUUID': 'JY-55bdf6a0e4598095236a68419ccb51ea', 'responseTime': '2020-09-23 11:52:07', 'ret': '0', 'success': '0', 'val': {'relationStatus': '1'}}</t>
+  </si>
+  <si>
+    <t>/api/rts/member/membershipCard/membershipCardList/V131</t>
+  </si>
+  <si>
+    <t>{"id":"${memberId}"}</t>
+  </si>
+  <si>
+    <t>查询顾客卡</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{'msg': '操作成功', 'requestUUID': 'JY-a59f6de2a0c5bb132024470ec3d46927', 'responseTime': '2020-09-23 11:52:07', 'ret': '0', 'success': '0', 'val': [{'addCashEventStatus': '0', 'applicableItemId': '', 'applicableItemName': '', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '', 'averagePrice': '', 'balanceAmount': '1000.0000', 'balanceGiftAmount': '0.0000', 'balanceRechargeAmount': '1000.0000', 'balanceTimes': '', 'cardName': '储值卡xyz', 'cardType': '1', 'deleteYn': '1', 'enjoyDiscount': '70', 'expireTime': '253402271999000', 'giftAmount': '0.0000', 'lastAveragePrice': '', 'memberCardTemplateId': '465599316220481536', 'membershipCardCode': 'VIP00227', 'membershipCardId': '506112656114839552', 'membershipCardStatus': '1', 'purchasePrice': '', 'purchaseTimes': '', 'rechargeAmount': '1000.0000', 'upgradeYn': '1', 'useMonth': '9999'}, {'addCashEventStatus': '0', 'applicableItemId': '5', 'applicableItemName': '洗吹', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '全部洗吹项目', 'averagePrice': '20.00', 'balanceAmount': '0', 'balanceGiftAmount': '0', 'balanceRechargeAmount': '0', 'balanceTimes': '100', 'cardName': '计次卡测试卡', 'cardType': '2', 'deleteYn': '1', 'enjoyDiscount': '', 'expireTime': '253402271999000', 'giftAmount': '', 'lastAveragePrice': '20.00', 'memberCardTemplateId': '503611922391625728', 'membershipCardCode': 'VIP00228', 'membershipCardId': '506112658446872576', 'membershipCardStatus': '1', 'purchasePrice': '2000.0000', 'purchaseTimes': '100', 'rechargeAmount': '', 'upgradeYn': '0', 'useMonth': '9999'}, {'addCashEventStatus': '0', 'applicableItemId': '', 'applicableItemName': '', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '', 'averagePrice': '', 'balanceAmount': '0', 'balanceGiftAmount': '0', 'balanceRechargeAmount': '0', 'balanceTimes': '0', 'cardName': '年卡1', 'cardType': '3', 'deleteYn': '1', 'enjoyDiscount': '95', 'expireTime': '1632326399000', 'giftAmount': '', 'lastAveragePrice': '', 'memberCardTemplateId': '463767922616791040', 'membershipCardCode': 'VIP00229', 'membershipCardId': '506112662049779712', 'membershipCardStatus': '1', 'purchasePrice': '1000.0000', 'purchaseTimes': '0', 'rechargeAmount': '', 'upgradeYn': '0', 'useMonth': '12'}]}</t>
+  </si>
+  <si>
+    <t>/api/rts/member/membershipCard/deleteMembershipCard/V141</t>
+  </si>
+  <si>
+    <t>{"membershipCardId":"${storedCardId}"}</t>
+  </si>
+  <si>
+    <t>删除储值卡</t>
+  </si>
+  <si>
+    <t>{"membershipCardId":"${timeCardId}"}</t>
+  </si>
+  <si>
+    <t>删除计次卡</t>
+  </si>
+  <si>
+    <t>{"membershipCardId":"${yearCardId}"}</t>
+  </si>
+  <si>
+    <t>删除年卡</t>
+  </si>
+  <si>
+    <t>{'msg': '会员卡不可删除', 'requestUUID': 'JY-b561926e9c914f5be1131c9ea53bc662', 'responseTime': '2020-09-23 09:35:21', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>{'msg': '会员卡不可删除', 'requestUUID': 'JY-345efbe928ab78731eb13122ff284a7a', 'responseTime': '2020-09-23 09:35:23', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+  </si>
+  <si>
+    <t>{'msg': '会员卡删除失败', 'requestUUID': 'JY-f2aa70a1c828d100bc12bf4a8e3cbed6', 'responseTime': '2020-09-23 09:35:23', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+  </si>
+  <si>
+    <t>/api/rts/base/employee/saveEmployee4Shop/V141</t>
+  </si>
+  <si>
+    <t>/api/rts/base/employee/getEmployeeList</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>获取顾客列表</t>
+  </si>
+  <si>
+    <t>{'content-type':'application/json','version': '1.4.2','platform': 'iOS','tk':'${tk}'}</t>
+  </si>
+  <si>
+    <t>{
+ "employeeId": "",
+ "roleId": "2",
+ "renewalCardYn": "1",
+ "employeeNickName": "",
+ "createActivitiesStatus": "1",
+ "scoreSettleStatus": "1",
+ "basicSalary": "1000",
+ "viewCellphoneNumberYn": "1",
+ "employeeMobile": "13011111111",
+ "positionId": "2",
+ "workStatus": "0",
+ "scanCouponStatus": "1",
+ "consumeViewStatus": "1",
+ "sellCardYn": "1"
+}</t>
+  </si>
+  <si>
+    <t>未输入姓名</t>
+  </si>
+  <si>
+    <t>{'content-type':'application/json','version': '1.4.3','platform': 'iOS','tk':'${tk}'}</t>
+  </si>
+  <si>
+    <t>{'msg': '请填写姓名', 'requestUUID': 'JY-08451a3eae6a46e73d1b5811a79140d0', 'responseTime': '2020-09-23 11:52:11', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+  </si>
+  <si>
+    <t>请填写姓名</t>
+  </si>
+  <si>
+    <t>{
+ "employeeId": "",
+ "roleId": "2",
+ "renewalCardYn": "1",
+ "employeeNickName": "剑琅联盟",
+ "createActivitiesStatus": "1",
+ "scoreSettleStatus": "1",
+ "basicSalary": "1000",
+ "viewCellphoneNumberYn": "1",
+ "employeeMobile": "",
+ "positionId": "2",
+ "workStatus": "0",
+ "scanCouponStatus": "1",
+ "consumeViewStatus": "1",
+ "sellCardYn": "1"
+}</t>
+  </si>
+  <si>
+    <t>未输入手机号</t>
+  </si>
+  <si>
+    <t>{'content-type':'application/json','version': '1.4.4','platform': 'iOS','tk':'${tk}'}</t>
+  </si>
+  <si>
+    <t>{'msg': '手机号不能为空', 'requestUUID': 'JY-8a147b8cdff861ea78de8d34c6c242c5', 'responseTime': '2020-09-23 11:52:11', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+  </si>
+  <si>
+    <t>手机号不能为空</t>
+  </si>
+  <si>
+    <t>{
+ "employeeId": "",
+ "roleId": "2",
+ "renewalCardYn": "1",
+ "employeeNickName": "剑琅联盟",
+ "createActivitiesStatus": "1",
+ "scoreSettleStatus": "1",
+ "basicSalary": "1000",
+ "viewCellphoneNumberYn": "1",
+ "employeeMobile": "13011111111",
+ "positionId": "",
+ "workStatus": "0",
+ "scanCouponStatus": "1",
+ "consumeViewStatus": "1",
+ "sellCardYn": "1"
+}</t>
+  </si>
+  <si>
+    <t>未选择头衔</t>
+  </si>
+  <si>
+    <t>{'content-type':'application/json','version': '1.4.5','platform': 'iOS','tk':'${tk}'}</t>
+  </si>
+  <si>
+    <t>{'msg': '请选择员工头衔', 'requestUUID': 'JY-b492f2ab6ae8118bb7dd7f904462f37a', 'responseTime': '2020-09-23 11:52:12', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+  </si>
+  <si>
+    <t>请选择员工头衔</t>
+  </si>
+  <si>
+    <t>{
+ "employeeId": "",
+ "roleId": "",
+ "renewalCardYn": "1",
+ "employeeNickName": "剑琅联盟",
+ "createActivitiesStatus": "1",
+ "scoreSettleStatus": "1",
+ "basicSalary": "1000",
+ "viewCellphoneNumberYn": "1",
+ "employeeMobile": "13011111111",
+ "positionId": "2",
+ "workStatus": "0",
+ "scanCouponStatus": "1",
+ "consumeViewStatus": "1",
+ "sellCardYn": "1"
+}</t>
+  </si>
+  <si>
+    <t>未选择权限</t>
+  </si>
+  <si>
+    <t>{'content-type':'application/json','version': '1.4.6','platform': 'iOS','tk':'${tk}'}</t>
+  </si>
+  <si>
+    <t>{'msg': '请选择权限', 'requestUUID': 'JY-b937ffea33194f0929c46ae9f333b892', 'responseTime': '2020-09-23 11:52:12', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+  </si>
+  <si>
+    <t>请选择权限</t>
+  </si>
+  <si>
+    <t>{
+ "employeeId": "",
+ "roleId": "2",
+ "renewalCardYn": "1",
+ "employeeNickName": "剑琅联盟",
+ "createActivitiesStatus": "1",
+ "scoreSettleStatus": "1",
+ "basicSalary": "",
+ "viewCellphoneNumberYn": "1",
+ "employeeMobile": "13011111111",
+ "positionId": "2",
+ "workStatus": "0",
+ "scanCouponStatus": "1",
+ "consumeViewStatus": "1",
+ "sellCardYn": "1"
+}</t>
+  </si>
+  <si>
+    <t>未输入基本工资</t>
+  </si>
+  <si>
+    <t>{'content-type':'application/json','version': '1.4.7','platform': 'iOS','tk':'${tk}'}</t>
+  </si>
+  <si>
+    <t>{'msg': '金额错误', 'requestUUID': 'JY-24dce10700ad9882b0206c4602abb471', 'responseTime': '2020-09-23 11:52:12', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+  </si>
+  <si>
+    <t>金额错误</t>
+  </si>
+  <si>
+    <t>{
+ "employeeId": "",
+ "roleId": "2",
+ "renewalCardYn": "1",
+ "employeeNickName": "剑琅联盟",
+ "createActivitiesStatus": "1",
+ "scoreSettleStatus": "1",
+ "basicSalary": "1000",
+ "viewCellphoneNumberYn": "1",
+ "employeeMobile": "13011111111",
+ "positionId": "2",
+ "workStatus": "0",
+ "scanCouponStatus": "1",
+ "consumeViewStatus": "1",
+ "sellCardYn": "1"
+}</t>
+  </si>
+  <si>
+    <t>该手机号已被注册</t>
+  </si>
+  <si>
+    <t>{'content-type':'application/json','version': '1.4.8','platform': 'iOS','tk':'${tk}'}</t>
+  </si>
+  <si>
+    <t>{'msg': '该手机号已被注册', 'requestUUID': 'JY-863a558f2f3dd63822f98cdd781f7538', 'responseTime': '2020-09-23 11:52:13', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+  </si>
+  <si>
+    <t>{
+ "employeeId": "",
+ "roleId": "2",
+ "renewalCardYn": "1",
+ "employeeNickName": "剑琅联盟",
+ "createActivitiesStatus": "1",
+ "scoreSettleStatus": "1",
+ "basicSalary": "1000",
+ "viewCellphoneNumberYn": "1",
+ "employeeMobile": "130111111111",
+ "positionId": "2",
+ "workStatus": "0",
+ "scanCouponStatus": "1",
+ "consumeViewStatus": "1",
+ "sellCardYn": "1"
+}</t>
+  </si>
+  <si>
+    <t>手机号错误</t>
+  </si>
+  <si>
+    <t>{'content-type':'application/json','version': '1.4.9','platform': 'iOS','tk':'${tk}'}</t>
+  </si>
+  <si>
+    <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-930b73a7097726fa8d64698fa6218747', 'responseTime': '2020-09-23 11:52:13', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+  </si>
+  <si>
+    <t>错误的手机号，请确认手机号信息</t>
+  </si>
+  <si>
+    <t>{
+ "employeeId": "",
+ "roleId": "2",
+ "renewalCardYn": "1",
+ "employeeNickName": "剑琅联盟",
+ "createActivitiesStatus": "1",
+ "scoreSettleStatus": "1",
+ "basicSalary": "1000",
+ "viewCellphoneNumberYn": "1",
+ "employeeMobile": "1301111111",
+ "positionId": "2",
+ "workStatus": "0",
+ "scanCouponStatus": "1",
+ "consumeViewStatus": "1",
+ "sellCardYn": "1"
+}</t>
+  </si>
+  <si>
+    <t>{'content-type':'application/json','version': '1.4.10','platform': 'iOS','tk':'${tk}'}</t>
+  </si>
+  <si>
+    <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-667013b5b65f0d0568de2351748242cb', 'responseTime': '2020-09-23 11:52:13', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+  </si>
+  <si>
+    <t>/api/rts/base/employee/updateEmployee4Shop/V141</t>
+  </si>
+  <si>
+    <t>修改员工姓名</t>
+  </si>
+  <si>
+    <t>{'msg': '操作成功', 'requestUUID': 'JY-527713ca04ffaf35fccfd9ad81a7002c', 'responseTime': '2020-09-23 11:52:13', 'ret': '0', 'success': '0', 'val': {}}</t>
+  </si>
+  <si>
+    <t>{
+ "renewalCardYn": "1",
+ "workStatus": "1",
+ "consumeViewStatus": "0",
+ "employeeId": "${employeeId}",
+ "employeeMobile": "${phone_num}",
+ "roleId": "3",
+ "basicSalary": "1000.0000",
+ "viewCellphoneNumberYn": "1",
+ "sellCardYn": "1",
+ "scoreSettleStatus": "0",
+ "employeeNickName": "剑琅联盟",
+ "positionId": "2",
+ "createActivitiesStatus": "0",
+ "scanCouponStatus": "1"
+}</t>
+  </si>
+  <si>
+    <t>修改权限</t>
+  </si>
+  <si>
+    <t>{'msg': '操作成功', 'requestUUID': 'JY-187d82e228eeac0ab21e5c2630be3346', 'responseTime': '2020-09-23 11:52:15', 'ret': '0', 'success': '0', 'val': {}}</t>
+  </si>
+  <si>
+    <t>{
+ "renewalCardYn": "1",
+ "workStatus": "1",
+ "consumeViewStatus": "0",
+ "employeeId": "${employeeId}",
+ "employeeMobile": "${phone_num}",
+ "roleId": "2",
+ "basicSalary": "1000.0000",
+ "viewCellphoneNumberYn": "1",
+ "sellCardYn": "1",
+ "scoreSettleStatus": "0",
+ "employeeNickName": "剑琅联盟",
+ "positionId": "3",
+ "createActivitiesStatus": "0",
+ "scanCouponStatus": "1"
+}</t>
+  </si>
+  <si>
+    <t>修改职位</t>
+  </si>
+  <si>
+    <t>{'msg': '操作成功', 'requestUUID': 'JY-d7c8d463abdcc3a18e75558d3218f1f4', 'responseTime': '2020-09-23 11:52:16', 'ret': '0', 'success': '0', 'val': {}}</t>
+  </si>
+  <si>
+    <t>{
+ "renewalCardYn": "1",
+ "workStatus": "1",
+ "consumeViewStatus": "0",
+ "employeeId": "${employeeId}",
+ "employeeMobile": "${phone_num}",
+ "roleId": "2",
+ "basicSalary": "10000.0000",
+ "viewCellphoneNumberYn": "1",
+ "sellCardYn": "1",
+ "scoreSettleStatus": "0",
+ "employeeNickName": "剑琅联盟",
+ "positionId": "3",
+ "createActivitiesStatus": "0",
+ "scanCouponStatus": "1"
+}</t>
+  </si>
+  <si>
+    <t>修改薪资</t>
+  </si>
+  <si>
+    <t>{'msg': '操作成功', 'requestUUID': 'JY-227daaef597679e55fa9a16fc6a7933a', 'responseTime': '2020-09-23 11:52:16', 'ret': '0', 'success': '0', 'val': {}}</t>
+  </si>
+  <si>
+    <t>{
+ "renewalCardYn": "1",
+ "workStatus": "1",
+ "consumeViewStatus": "0",
+ "employeeId": "${employeeId}",
+ "employeeMobile": "18088885555",
+ "roleId": "2",
+ "basicSalary": "1000.0000",
+ "viewCellphoneNumberYn": "1",
+ "sellCardYn": "1",
+ "scoreSettleStatus": "0",
+ "employeeNickName": "剑琅联盟",
+ "positionId": "2",
+ "createActivitiesStatus": "0",
+ "scanCouponStatus": "1"
+}</t>
+  </si>
+  <si>
+    <t>员工离职</t>
+  </si>
+  <si>
+    <t>{'msg': '操作成功', 'requestUUID': 'JY-bbf4de4ae676d2f496c0f4646f29e816', 'responseTime': '2020-09-23 11:52:16', 'ret': '0', 'success': '0', 'val': {}}</t>
+  </si>
+  <si>
+    <t>/api/rts/base/employee/deleteEmployee/V131</t>
+  </si>
+  <si>
+    <t>{"employeeId":"${employeeId}"}</t>
+  </si>
+  <si>
+    <t>删除员工</t>
+  </si>
+  <si>
+    <t>{'msg': '操作成功', 'requestUUID': 'JY-51c662ac8db595b0b0717e91e32d440a', 'responseTime': '2020-09-23 11:52:17', 'ret': '0', 'success': '0', 'val': {}}</t>
+  </si>
+  <si>
+    <t>/api/rts/member/card/addCardTemplate/V141</t>
+  </si>
+  <si>
+    <t>{
+ "enjoyDiscount": "90",
+ "cardTemplateSourceType": "0",
+ "cardType": "1",
+ "rechargeAmount": "1000",
+ "cardName": "储值卡测试",
+ "useMonth": "12",
+ "giftAmount": ""
+}</t>
+  </si>
+  <si>
+    <t>添加储值卡模板</t>
+  </si>
+  <si>
+    <t>{
+ "purchaseTimes": "10",
+ "useMonth": "9999",
+ "cardType": "2",
+ "cardTemplateSourceType": "0",
+ "applicableItemId": "5",
+ "cardName": "计次卡测试",
+ "purchasePrice": "1000"
+}</t>
+  </si>
+  <si>
+    <t>添加计次卡模板</t>
+  </si>
+  <si>
+    <t>{
+ "cardTemplateSourceType": "0",
+ "purchasePrice": "1000",
+ "cardName": "年卡测试",
+ "cardType": "3",
+ "enjoyDiscount": "90"
+}</t>
+  </si>
+  <si>
+    <t>添加年卡模板</t>
+  </si>
+  <si>
+    <t>/api/rts/member/card/updateCardTemplateStatus/V141</t>
+  </si>
+  <si>
+    <t>{"cardTemplateId"}:{"${cardTemplateId}"}</t>
+  </si>
+  <si>
+    <t>下架储值卡模板</t>
+  </si>
+  <si>
+    <t>下架计次卡模板</t>
+  </si>
+  <si>
+    <t>下架年卡模板</t>
+  </si>
+  <si>
+    <t>/api/rts/member/card/deleteCardTemplate/V131</t>
+  </si>
+  <si>
+    <t>"{id}":"{${cardTemplateId}}"</t>
+  </si>
+  <si>
+    <t>删除储值卡模板</t>
+  </si>
+  <si>
+    <t>删除计次卡模板</t>
+  </si>
+  <si>
+    <t>删除年卡模板</t>
+  </si>
+  <si>
+    <t>新建顾客id</t>
+  </si>
+  <si>
+    <t>新办储值卡id</t>
+  </si>
+  <si>
+    <t>新办计次卡id</t>
+  </si>
+  <si>
+    <t>新办年卡id</t>
+  </si>
+  <si>
+    <t>新建员工id</t>
+  </si>
+  <si>
+    <t>店铺tk</t>
+  </si>
+  <si>
+    <t>506112654764273664</t>
+  </si>
+  <si>
+    <t>506138453596827648</t>
+  </si>
+  <si>
+    <t>506138455811420160</t>
+  </si>
+  <si>
+    <t>506138459355607040</t>
+  </si>
+  <si>
+    <t>506112674977665024</t>
+  </si>
+  <si>
+    <t>c88d15a1-a3bb-493c-b238-8a74ee871559</t>
   </si>
   <si>
     <t>{
@@ -443,95 +928,93 @@
  "employeeIdList": ["343732200062099456"],
  "cardTemplateId": "465599316220481536"
 }</t>
-  </si>
-  <si>
-    <t>新办储值卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "receiptPayment": [{
+  "paymentType": "456084858905566471",
+  "netAmount": 20
+ }],
+ "gender": "0",
+ "customerType": "1",
+ "billingTime": ${time_now},
+ "receiptItem": [{
+  "countingPayment": [],
+  "itemSubName": "洗洗洗洗",
+  "serviceEmployee": [],
+  "itemCount": 1,
+  "itemPrice": "20.00",
+  "itemName": "洗吹",
+  "itemSubId": "463767356746289152",
+  "itemNameId": "5"
+ }]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "customerType": "1",
+ "billingTime": ${time_now},
+ "gender": "0",
+ "receiptItem": [{
+  "itemName": "洗吹",
+  "itemSubName": "洗洗洗洗",
+  "itemPrice": "20.00",
+  "itemNameId": "5",
+  "serviceEmployee": [{
+   "appointServiceYn": "0",
+   "typeOfWork": "3",
+   "employeeId": "343732200062099456"
+  }],
+  "itemCount": 1,
+  "itemSubId": "463767356746289152",
+  "countingPayment": []
+ }],
+ "receiptPayment": [{
+  "paymentType": "456084858905566471",
+  "netAmount": 20
+ }]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'msg': '操作成功', 'requestUUID': 'JY-98025ef44747a65182d9bc41a48bf5c4', 'responseTime': '2020-09-23 11:52:05', 'ret': '0', 'success': '0', 'val': {'id': '506112654764273664'}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{'msg': '操作成功', 'requestUUID': 'JY-a2f9ab9b43ac0002671282c931a68cc1', 'responseTime': '2020-09-23 11:52:06', 'ret': '0', 'success': '0', 'val': {'relationStatus': '1'}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'msg': '操作成功', 'requestUUID': 'JY-fe98f266cbb643b8a353ea6407665ea0', 'responseTime': '2020-09-23 11:52:07', 'ret': '0', 'success': '0', 'val': {'relationStatus': '1'}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'msg': '操作成功', 'requestUUID': 'JY-a64f37cd1bce5d83ea128d219b978e06', 'responseTime': '2020-09-23 11:52:10', 'ret': '0', 'success': '0', 'val': {}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
- "cardTemplateId": "503611922391625728",
- "employeeIdList": ["343732200062099456"],
- "journalDate":${time_now},
- "membershipId": "${memberId}",
- "systemDictionaryId": "456084858905566471",
- "purchaseAmount": "2000.0000"
+ "renewalCardYn": "1",
+ "workStatus": "1",
+ "consumeViewStatus": "0",
+ "employeeId": "${employeeId}",
+ "employeeMobile": "${phone_num}",
+ "roleId": "2",
+ "basicSalary": "1000.0000",
+ "viewCellphoneNumberYn": "1",
+ "sellCardYn": "1",
+ "scoreSettleStatus": "0",
+ "employeeNickName": "剑琅",
+ "positionId": "2",
+ "createActivitiesStatus": "0",
+ "scanCouponStatus": "1"
 }</t>
-  </si>
-  <si>
-    <t>新办计次卡</t>
-  </si>
-  <si>
-    <t>{'msg': '操作成功', 'requestUUID': 'JY-fe98f266cbb643b8a353ea6407665ea0', 'responseTime': '2020-09-23 11:52:07', 'ret': '0', 'success': '0', 'val': {'relationStatus': '1'}}</t>
-  </si>
-  <si>
-    <t>{
- "journalDate":${time_now},
- "cardTemplateId": "463767922616791040",
- "employeeIdList": ["343732200062099456"],
- "membershipId": "${memberId}",
- "systemDictionaryId": "456084858905566471",
- "purchaseAmount": "1000.0000"
-}</t>
-  </si>
-  <si>
-    <t>新办年卡</t>
-  </si>
-  <si>
-    <t>{'msg': '操作成功', 'requestUUID': 'JY-55bdf6a0e4598095236a68419ccb51ea', 'responseTime': '2020-09-23 11:52:07', 'ret': '0', 'success': '0', 'val': {'relationStatus': '1'}}</t>
-  </si>
-  <si>
-    <t>/api/rts/member/membershipCard/membershipCardList/V131</t>
-  </si>
-  <si>
-    <t>{"id":"${memberId}"}</t>
-  </si>
-  <si>
-    <t>查询顾客卡</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>{'msg': '操作成功', 'requestUUID': 'JY-a59f6de2a0c5bb132024470ec3d46927', 'responseTime': '2020-09-23 11:52:07', 'ret': '0', 'success': '0', 'val': [{'addCashEventStatus': '0', 'applicableItemId': '', 'applicableItemName': '', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '', 'averagePrice': '', 'balanceAmount': '1000.0000', 'balanceGiftAmount': '0.0000', 'balanceRechargeAmount': '1000.0000', 'balanceTimes': '', 'cardName': '储值卡xyz', 'cardType': '1', 'deleteYn': '1', 'enjoyDiscount': '70', 'expireTime': '253402271999000', 'giftAmount': '0.0000', 'lastAveragePrice': '', 'memberCardTemplateId': '465599316220481536', 'membershipCardCode': 'VIP00227', 'membershipCardId': '506112656114839552', 'membershipCardStatus': '1', 'purchasePrice': '', 'purchaseTimes': '', 'rechargeAmount': '1000.0000', 'upgradeYn': '1', 'useMonth': '9999'}, {'addCashEventStatus': '0', 'applicableItemId': '5', 'applicableItemName': '洗吹', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '全部洗吹项目', 'averagePrice': '20.00', 'balanceAmount': '0', 'balanceGiftAmount': '0', 'balanceRechargeAmount': '0', 'balanceTimes': '100', 'cardName': '计次卡测试卡', 'cardType': '2', 'deleteYn': '1', 'enjoyDiscount': '', 'expireTime': '253402271999000', 'giftAmount': '', 'lastAveragePrice': '20.00', 'memberCardTemplateId': '503611922391625728', 'membershipCardCode': 'VIP00228', 'membershipCardId': '506112658446872576', 'membershipCardStatus': '1', 'purchasePrice': '2000.0000', 'purchaseTimes': '100', 'rechargeAmount': '', 'upgradeYn': '0', 'useMonth': '9999'}, {'addCashEventStatus': '0', 'applicableItemId': '', 'applicableItemName': '', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '', 'averagePrice': '', 'balanceAmount': '0', 'balanceGiftAmount': '0', 'balanceRechargeAmount': '0', 'balanceTimes': '0', 'cardName': '年卡1', 'cardType': '3', 'deleteYn': '1', 'enjoyDiscount': '95', 'expireTime': '1632326399000', 'giftAmount': '', 'lastAveragePrice': '', 'memberCardTemplateId': '463767922616791040', 'membershipCardCode': 'VIP00229', 'membershipCardId': '506112662049779712', 'membershipCardStatus': '1', 'purchasePrice': '1000.0000', 'purchaseTimes': '0', 'rechargeAmount': '', 'upgradeYn': '0', 'useMonth': '12'}]}</t>
-  </si>
-  <si>
-    <t>/api/rts/member/membershipCard/deleteMembershipCard/V141</t>
-  </si>
-  <si>
-    <t>{"membershipCardId":"${storedCardId}"}</t>
-  </si>
-  <si>
-    <t>删除储值卡</t>
-  </si>
-  <si>
-    <t>{"membershipCardId":"${timeCardId}"}</t>
-  </si>
-  <si>
-    <t>删除计次卡</t>
-  </si>
-  <si>
-    <t>{"membershipCardId":"${yearCardId}"}</t>
-  </si>
-  <si>
-    <t>删除年卡</t>
-  </si>
-  <si>
-    <t>{'msg': '会员卡不可删除', 'requestUUID': 'JY-b561926e9c914f5be1131c9ea53bc662', 'responseTime': '2020-09-23 09:35:21', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>{'msg': '会员卡不可删除', 'requestUUID': 'JY-345efbe928ab78731eb13122ff284a7a', 'responseTime': '2020-09-23 09:35:23', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
-  </si>
-  <si>
-    <t>{'msg': '会员卡删除失败', 'requestUUID': 'JY-f2aa70a1c828d100bc12bf4a8e3cbed6', 'responseTime': '2020-09-23 09:35:23', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
-  </si>
-  <si>
-    <t>/api/rts/base/employee/saveEmployee4Shop/V141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -550,502 +1033,35 @@
  "consumeViewStatus": "1",
  "sellCardYn": "1"
 }</t>
-  </si>
-  <si>
-    <t>新建顾客成功</t>
-  </si>
-  <si>
-    <t>{'msg': '操作成功', 'requestUUID': 'JY-a64f37cd1bce5d83ea128d219b978e06', 'responseTime': '2020-09-23 11:52:10', 'ret': '0', 'success': '0', 'val': {}}</t>
-  </si>
-  <si>
-    <t>/api/rts/base/employee/getEmployeeList</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>获取顾客列表</t>
-  </si>
-  <si>
-    <t>{'content-type':'application/json','version': '1.4.2','platform': 'iOS','tk':'${tk}'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "membershipMobile": "${phone_num}",
+ "gender": "0",
+ "membershipName": "啦啦啦"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建员工成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{'msg': '操作成功', 'requestUUID': 'JY-bde3d9ea83874c179e47d68c45c19ba8', 'responseTime': '2020-09-23 11:52:11', 'ret': '0', 'success': '0', 'val': [{'employeeCompleteStatus': '1', 'employeeHeadImageUrl': 'http://ossuat.round-table-union.com/343732200141791232/employeeLogoImage/343732200062099456/7a309a021eac10928e6ccbb2a0a6e332.jpg', 'employeeId': '343732200062099456', 'employeeNickName': '吴迪', 'positionName': '店主', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506112674977665024', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506083042639335424', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506079357838413824', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506078445141086208', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506077779677007872', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506073717715881984', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505836801137430528', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505836109618335744', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505835202264551424', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505833859869167616', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505833286159683584', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505830814775103488', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505824047399817216', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505821997467291648', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505774167163785216', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505378264229728256', 'employeeNickName': '牛哥', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505356577140494336', 'employeeNickName': '琅', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '464854987290226688', 'employeeNickName': '王磊1', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '465985919050485760', 'employeeNickName': '哈哈', 'positionName': '总监', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '495635425165332480', 'employeeNickName': '嘿嘿', 'positionName': '美发师', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505478695282921472', 'employeeNickName': '剑琅联盟', 'positionName': '总监', 'showStatus': '1', 'workStatus': '1'}]}</t>
-  </si>
-  <si>
-    <t>{
- "employeeId": "",
- "roleId": "2",
- "renewalCardYn": "1",
- "employeeNickName": "",
- "createActivitiesStatus": "1",
- "scoreSettleStatus": "1",
- "basicSalary": "1000",
- "viewCellphoneNumberYn": "1",
- "employeeMobile": "13011111111",
- "positionId": "2",
- "workStatus": "0",
- "scanCouponStatus": "1",
- "consumeViewStatus": "1",
- "sellCardYn": "1"
-}</t>
-  </si>
-  <si>
-    <t>未输入姓名</t>
-  </si>
-  <si>
-    <t>{'content-type':'application/json','version': '1.4.3','platform': 'iOS','tk':'${tk}'}</t>
-  </si>
-  <si>
-    <t>{'msg': '请填写姓名', 'requestUUID': 'JY-08451a3eae6a46e73d1b5811a79140d0', 'responseTime': '2020-09-23 11:52:11', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
-  </si>
-  <si>
-    <t>请填写姓名</t>
-  </si>
-  <si>
-    <t>{
- "employeeId": "",
- "roleId": "2",
- "renewalCardYn": "1",
- "employeeNickName": "剑琅联盟",
- "createActivitiesStatus": "1",
- "scoreSettleStatus": "1",
- "basicSalary": "1000",
- "viewCellphoneNumberYn": "1",
- "employeeMobile": "",
- "positionId": "2",
- "workStatus": "0",
- "scanCouponStatus": "1",
- "consumeViewStatus": "1",
- "sellCardYn": "1"
-}</t>
-  </si>
-  <si>
-    <t>未输入手机号</t>
-  </si>
-  <si>
-    <t>{'content-type':'application/json','version': '1.4.4','platform': 'iOS','tk':'${tk}'}</t>
-  </si>
-  <si>
-    <t>{'msg': '手机号不能为空', 'requestUUID': 'JY-8a147b8cdff861ea78de8d34c6c242c5', 'responseTime': '2020-09-23 11:52:11', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
-  </si>
-  <si>
-    <t>手机号不能为空</t>
-  </si>
-  <si>
-    <t>{
- "employeeId": "",
- "roleId": "2",
- "renewalCardYn": "1",
- "employeeNickName": "剑琅联盟",
- "createActivitiesStatus": "1",
- "scoreSettleStatus": "1",
- "basicSalary": "1000",
- "viewCellphoneNumberYn": "1",
- "employeeMobile": "13011111111",
- "positionId": "",
- "workStatus": "0",
- "scanCouponStatus": "1",
- "consumeViewStatus": "1",
- "sellCardYn": "1"
-}</t>
-  </si>
-  <si>
-    <t>未选择头衔</t>
-  </si>
-  <si>
-    <t>{'content-type':'application/json','version': '1.4.5','platform': 'iOS','tk':'${tk}'}</t>
-  </si>
-  <si>
-    <t>{'msg': '请选择员工头衔', 'requestUUID': 'JY-b492f2ab6ae8118bb7dd7f904462f37a', 'responseTime': '2020-09-23 11:52:12', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
-  </si>
-  <si>
-    <t>请选择员工头衔</t>
-  </si>
-  <si>
-    <t>{
- "employeeId": "",
- "roleId": "",
- "renewalCardYn": "1",
- "employeeNickName": "剑琅联盟",
- "createActivitiesStatus": "1",
- "scoreSettleStatus": "1",
- "basicSalary": "1000",
- "viewCellphoneNumberYn": "1",
- "employeeMobile": "13011111111",
- "positionId": "2",
- "workStatus": "0",
- "scanCouponStatus": "1",
- "consumeViewStatus": "1",
- "sellCardYn": "1"
-}</t>
-  </si>
-  <si>
-    <t>未选择权限</t>
-  </si>
-  <si>
-    <t>{'content-type':'application/json','version': '1.4.6','platform': 'iOS','tk':'${tk}'}</t>
-  </si>
-  <si>
-    <t>{'msg': '请选择权限', 'requestUUID': 'JY-b937ffea33194f0929c46ae9f333b892', 'responseTime': '2020-09-23 11:52:12', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
-  </si>
-  <si>
-    <t>请选择权限</t>
-  </si>
-  <si>
-    <t>{
- "employeeId": "",
- "roleId": "2",
- "renewalCardYn": "1",
- "employeeNickName": "剑琅联盟",
- "createActivitiesStatus": "1",
- "scoreSettleStatus": "1",
- "basicSalary": "",
- "viewCellphoneNumberYn": "1",
- "employeeMobile": "13011111111",
- "positionId": "2",
- "workStatus": "0",
- "scanCouponStatus": "1",
- "consumeViewStatus": "1",
- "sellCardYn": "1"
-}</t>
-  </si>
-  <si>
-    <t>未输入基本工资</t>
-  </si>
-  <si>
-    <t>{'content-type':'application/json','version': '1.4.7','platform': 'iOS','tk':'${tk}'}</t>
-  </si>
-  <si>
-    <t>{'msg': '金额错误', 'requestUUID': 'JY-24dce10700ad9882b0206c4602abb471', 'responseTime': '2020-09-23 11:52:12', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
-  </si>
-  <si>
-    <t>金额错误</t>
-  </si>
-  <si>
-    <t>{
- "employeeId": "",
- "roleId": "2",
- "renewalCardYn": "1",
- "employeeNickName": "剑琅联盟",
- "createActivitiesStatus": "1",
- "scoreSettleStatus": "1",
- "basicSalary": "1000",
- "viewCellphoneNumberYn": "1",
- "employeeMobile": "13011111111",
- "positionId": "2",
- "workStatus": "0",
- "scanCouponStatus": "1",
- "consumeViewStatus": "1",
- "sellCardYn": "1"
-}</t>
-  </si>
-  <si>
-    <t>该手机号已被注册</t>
-  </si>
-  <si>
-    <t>{'content-type':'application/json','version': '1.4.8','platform': 'iOS','tk':'${tk}'}</t>
-  </si>
-  <si>
-    <t>{'msg': '该手机号已被注册', 'requestUUID': 'JY-863a558f2f3dd63822f98cdd781f7538', 'responseTime': '2020-09-23 11:52:13', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
-  </si>
-  <si>
-    <t>{
- "employeeId": "",
- "roleId": "2",
- "renewalCardYn": "1",
- "employeeNickName": "剑琅联盟",
- "createActivitiesStatus": "1",
- "scoreSettleStatus": "1",
- "basicSalary": "1000",
- "viewCellphoneNumberYn": "1",
- "employeeMobile": "130111111111",
- "positionId": "2",
- "workStatus": "0",
- "scanCouponStatus": "1",
- "consumeViewStatus": "1",
- "sellCardYn": "1"
-}</t>
-  </si>
-  <si>
-    <t>手机号错误</t>
-  </si>
-  <si>
-    <t>{'content-type':'application/json','version': '1.4.9','platform': 'iOS','tk':'${tk}'}</t>
-  </si>
-  <si>
-    <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-930b73a7097726fa8d64698fa6218747', 'responseTime': '2020-09-23 11:52:13', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
-  </si>
-  <si>
-    <t>错误的手机号，请确认手机号信息</t>
-  </si>
-  <si>
-    <t>{
- "employeeId": "",
- "roleId": "2",
- "renewalCardYn": "1",
- "employeeNickName": "剑琅联盟",
- "createActivitiesStatus": "1",
- "scoreSettleStatus": "1",
- "basicSalary": "1000",
- "viewCellphoneNumberYn": "1",
- "employeeMobile": "1301111111",
- "positionId": "2",
- "workStatus": "0",
- "scanCouponStatus": "1",
- "consumeViewStatus": "1",
- "sellCardYn": "1"
-}</t>
-  </si>
-  <si>
-    <t>{'content-type':'application/json','version': '1.4.10','platform': 'iOS','tk':'${tk}'}</t>
-  </si>
-  <si>
-    <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-667013b5b65f0d0568de2351748242cb', 'responseTime': '2020-09-23 11:52:13', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
-  </si>
-  <si>
-    <t>/api/rts/base/employee/updateEmployee4Shop/V141</t>
-  </si>
-  <si>
-    <t>{
- "renewalCardYn": "1",
- "workStatus": "1",
- "consumeViewStatus": "0",
- "employeeId": "${employeeId}",
- "employeeMobile": "${phone_num}",
- "roleId": "2",
- "basicSalary": "1000.0000",
- "viewCellphoneNumberYn": "1",
- "sellCardYn": "1",
- "scoreSettleStatus": "0",
- "employeeNickName": "剑琅",
- "positionId": "2",
- "createActivitiesStatus": "0",
- "scanCouponStatus": "1"
-}</t>
-  </si>
-  <si>
-    <t>修改员工姓名</t>
-  </si>
-  <si>
-    <t>{'msg': '操作成功', 'requestUUID': 'JY-527713ca04ffaf35fccfd9ad81a7002c', 'responseTime': '2020-09-23 11:52:13', 'ret': '0', 'success': '0', 'val': {}}</t>
-  </si>
-  <si>
-    <t>{
- "renewalCardYn": "1",
- "workStatus": "1",
- "consumeViewStatus": "0",
- "employeeId": "${employeeId}",
- "employeeMobile": "${phone_num}",
- "roleId": "3",
- "basicSalary": "1000.0000",
- "viewCellphoneNumberYn": "1",
- "sellCardYn": "1",
- "scoreSettleStatus": "0",
- "employeeNickName": "剑琅联盟",
- "positionId": "2",
- "createActivitiesStatus": "0",
- "scanCouponStatus": "1"
-}</t>
-  </si>
-  <si>
-    <t>修改权限</t>
-  </si>
-  <si>
-    <t>{'msg': '操作成功', 'requestUUID': 'JY-187d82e228eeac0ab21e5c2630be3346', 'responseTime': '2020-09-23 11:52:15', 'ret': '0', 'success': '0', 'val': {}}</t>
-  </si>
-  <si>
-    <t>{
- "renewalCardYn": "1",
- "workStatus": "1",
- "consumeViewStatus": "0",
- "employeeId": "${employeeId}",
- "employeeMobile": "${phone_num}",
- "roleId": "2",
- "basicSalary": "1000.0000",
- "viewCellphoneNumberYn": "1",
- "sellCardYn": "1",
- "scoreSettleStatus": "0",
- "employeeNickName": "剑琅联盟",
- "positionId": "3",
- "createActivitiesStatus": "0",
- "scanCouponStatus": "1"
-}</t>
-  </si>
-  <si>
-    <t>修改职位</t>
-  </si>
-  <si>
-    <t>{'msg': '操作成功', 'requestUUID': 'JY-d7c8d463abdcc3a18e75558d3218f1f4', 'responseTime': '2020-09-23 11:52:16', 'ret': '0', 'success': '0', 'val': {}}</t>
-  </si>
-  <si>
-    <t>{
- "renewalCardYn": "1",
- "workStatus": "1",
- "consumeViewStatus": "0",
- "employeeId": "${employeeId}",
- "employeeMobile": "${phone_num}",
- "roleId": "2",
- "basicSalary": "10000.0000",
- "viewCellphoneNumberYn": "1",
- "sellCardYn": "1",
- "scoreSettleStatus": "0",
- "employeeNickName": "剑琅联盟",
- "positionId": "3",
- "createActivitiesStatus": "0",
- "scanCouponStatus": "1"
-}</t>
-  </si>
-  <si>
-    <t>修改薪资</t>
-  </si>
-  <si>
-    <t>{'msg': '操作成功', 'requestUUID': 'JY-227daaef597679e55fa9a16fc6a7933a', 'responseTime': '2020-09-23 11:52:16', 'ret': '0', 'success': '0', 'val': {}}</t>
-  </si>
-  <si>
-    <t>{
- "renewalCardYn": "1",
- "workStatus": "1",
- "consumeViewStatus": "0",
- "employeeId": "${employeeId}",
- "employeeMobile": "18088885555",
- "roleId": "2",
- "basicSalary": "1000.0000",
- "viewCellphoneNumberYn": "1",
- "sellCardYn": "1",
- "scoreSettleStatus": "0",
- "employeeNickName": "剑琅联盟",
- "positionId": "2",
- "createActivitiesStatus": "0",
- "scanCouponStatus": "1"
-}</t>
-  </si>
-  <si>
-    <t>员工离职</t>
-  </si>
-  <si>
-    <t>{'msg': '操作成功', 'requestUUID': 'JY-bbf4de4ae676d2f496c0f4646f29e816', 'responseTime': '2020-09-23 11:52:16', 'ret': '0', 'success': '0', 'val': {}}</t>
-  </si>
-  <si>
-    <t>/api/rts/base/employee/deleteEmployee/V131</t>
-  </si>
-  <si>
-    <t>{"employeeId":"${employeeId}"}</t>
-  </si>
-  <si>
-    <t>删除员工</t>
-  </si>
-  <si>
-    <t>{'msg': '操作成功', 'requestUUID': 'JY-51c662ac8db595b0b0717e91e32d440a', 'responseTime': '2020-09-23 11:52:17', 'ret': '0', 'success': '0', 'val': {}}</t>
-  </si>
-  <si>
-    <t>/api/rts/member/card/addCardTemplate/V141</t>
-  </si>
-  <si>
-    <t>{
- "enjoyDiscount": "90",
- "cardTemplateSourceType": "0",
- "cardType": "1",
- "rechargeAmount": "1000",
- "cardName": "储值卡测试",
- "useMonth": "12",
- "giftAmount": ""
-}</t>
-  </si>
-  <si>
-    <t>添加储值卡模板</t>
-  </si>
-  <si>
-    <t>{
- "purchaseTimes": "10",
- "useMonth": "9999",
- "cardType": "2",
- "cardTemplateSourceType": "0",
- "applicableItemId": "5",
- "cardName": "计次卡测试",
- "purchasePrice": "1000"
-}</t>
-  </si>
-  <si>
-    <t>添加计次卡模板</t>
-  </si>
-  <si>
-    <t>{
- "cardTemplateSourceType": "0",
- "purchasePrice": "1000",
- "cardName": "年卡测试",
- "cardType": "3",
- "enjoyDiscount": "90"
-}</t>
-  </si>
-  <si>
-    <t>添加年卡模板</t>
-  </si>
-  <si>
-    <t>/api/rts/member/card/updateCardTemplateStatus/V141</t>
-  </si>
-  <si>
-    <t>{"cardTemplateId"}:{"${cardTemplateId}"}</t>
-  </si>
-  <si>
-    <t>下架储值卡模板</t>
-  </si>
-  <si>
-    <t>下架计次卡模板</t>
-  </si>
-  <si>
-    <t>下架年卡模板</t>
-  </si>
-  <si>
-    <t>/api/rts/member/card/deleteCardTemplate/V131</t>
-  </si>
-  <si>
-    <t>"{id}":"{${cardTemplateId}}"</t>
-  </si>
-  <si>
-    <t>删除储值卡模板</t>
-  </si>
-  <si>
-    <t>删除计次卡模板</t>
-  </si>
-  <si>
-    <t>删除年卡模板</t>
-  </si>
-  <si>
-    <t>新建顾客id</t>
-  </si>
-  <si>
-    <t>新办储值卡id</t>
-  </si>
-  <si>
-    <t>新办计次卡id</t>
-  </si>
-  <si>
-    <t>新办年卡id</t>
-  </si>
-  <si>
-    <t>新建员工id</t>
-  </si>
-  <si>
-    <t>店铺tk</t>
-  </si>
-  <si>
-    <t>506112654764273664</t>
-  </si>
-  <si>
-    <t>506138453596827648</t>
-  </si>
-  <si>
-    <t>506138455811420160</t>
-  </si>
-  <si>
-    <t>506138459355607040</t>
-  </si>
-  <si>
-    <t>506112674977665024</t>
-  </si>
-  <si>
-    <t>c88d15a1-a3bb-493c-b238-8a74ee871559</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1392,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1439,26 +1455,94 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="4" t="s">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1482,13 +1566,6 @@
     <row r="26" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1500,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1546,292 +1623,292 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1843,10 +1920,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1890,238 +1967,126 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>58</v>
+        <v>180</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>167</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2154,18 +2119,10 @@
     <row r="39" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2174,7 +2131,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2219,89 +2176,89 @@
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>86</v>
-      </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2313,10 +2270,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2362,294 +2319,236 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G3" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G4" t="s">
         <v>95</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>100</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    <row r="6" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>105</v>
       </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    <row r="7" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>110</v>
       </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="G8" t="s">
         <v>114</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="5" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="G9" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" t="s">
-        <v>125</v>
-      </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2664,7 +2563,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2715,28 +2614,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.2">
@@ -2744,28 +2643,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2773,28 +2672,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2802,28 +2701,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2831,28 +2730,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2860,28 +2759,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2944,209 +2843,209 @@
     </row>
     <row r="2" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3186,42 +3085,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="744" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="start_before" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="membercard" sheetId="4" r:id="rId4"/>
     <sheet name="employee" sheetId="5" r:id="rId5"/>
     <sheet name="employee_update" sheetId="6" r:id="rId6"/>
-    <sheet name="card_template" sheetId="7" r:id="rId7"/>
-    <sheet name="init" sheetId="8" r:id="rId8"/>
+    <sheet name="create_card_template" sheetId="9" r:id="rId7"/>
+    <sheet name="card_template" sheetId="7" r:id="rId8"/>
+    <sheet name="init" sheetId="8" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="183">
   <si>
     <t>case_id</t>
   </si>
@@ -358,9 +359,6 @@
     <t>{'msg': '操作成功', 'requestUUID': 'JY-2b9986dd952c98fc98d2b5e53a8ca428', 'responseTime': '2020-09-23 11:53:43', 'ret': '0', 'success': '0', 'val': {}}</t>
   </si>
   <si>
-    <t>/api/rts/member/membership/addMembership/V125</t>
-  </si>
-  <si>
     <t>新建顾客无生日</t>
   </si>
   <si>
@@ -399,21 +397,9 @@
     <t>{'msg': '操作成功', 'requestUUID': 'JY-55bdf6a0e4598095236a68419ccb51ea', 'responseTime': '2020-09-23 11:52:07', 'ret': '0', 'success': '0', 'val': {'relationStatus': '1'}}</t>
   </si>
   <si>
-    <t>/api/rts/member/membershipCard/membershipCardList/V131</t>
-  </si>
-  <si>
-    <t>{"id":"${memberId}"}</t>
-  </si>
-  <si>
-    <t>查询顾客卡</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
-    <t>{'msg': '操作成功', 'requestUUID': 'JY-a59f6de2a0c5bb132024470ec3d46927', 'responseTime': '2020-09-23 11:52:07', 'ret': '0', 'success': '0', 'val': [{'addCashEventStatus': '0', 'applicableItemId': '', 'applicableItemName': '', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '', 'averagePrice': '', 'balanceAmount': '1000.0000', 'balanceGiftAmount': '0.0000', 'balanceRechargeAmount': '1000.0000', 'balanceTimes': '', 'cardName': '储值卡xyz', 'cardType': '1', 'deleteYn': '1', 'enjoyDiscount': '70', 'expireTime': '253402271999000', 'giftAmount': '0.0000', 'lastAveragePrice': '', 'memberCardTemplateId': '465599316220481536', 'membershipCardCode': 'VIP00227', 'membershipCardId': '506112656114839552', 'membershipCardStatus': '1', 'purchasePrice': '', 'purchaseTimes': '', 'rechargeAmount': '1000.0000', 'upgradeYn': '1', 'useMonth': '9999'}, {'addCashEventStatus': '0', 'applicableItemId': '5', 'applicableItemName': '洗吹', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '全部洗吹项目', 'averagePrice': '20.00', 'balanceAmount': '0', 'balanceGiftAmount': '0', 'balanceRechargeAmount': '0', 'balanceTimes': '100', 'cardName': '计次卡测试卡', 'cardType': '2', 'deleteYn': '1', 'enjoyDiscount': '', 'expireTime': '253402271999000', 'giftAmount': '', 'lastAveragePrice': '20.00', 'memberCardTemplateId': '503611922391625728', 'membershipCardCode': 'VIP00228', 'membershipCardId': '506112658446872576', 'membershipCardStatus': '1', 'purchasePrice': '2000.0000', 'purchaseTimes': '100', 'rechargeAmount': '', 'upgradeYn': '0', 'useMonth': '9999'}, {'addCashEventStatus': '0', 'applicableItemId': '', 'applicableItemName': '', 'applicableSpecificItemId': '', 'applicableSpecificItemName': '', 'averagePrice': '', 'balanceAmount': '0', 'balanceGiftAmount': '0', 'balanceRechargeAmount': '0', 'balanceTimes': '0', 'cardName': '年卡1', 'cardType': '3', 'deleteYn': '1', 'enjoyDiscount': '95', 'expireTime': '1632326399000', 'giftAmount': '', 'lastAveragePrice': '', 'memberCardTemplateId': '463767922616791040', 'membershipCardCode': 'VIP00229', 'membershipCardId': '506112662049779712', 'membershipCardStatus': '1', 'purchasePrice': '1000.0000', 'purchaseTimes': '0', 'rechargeAmount': '', 'upgradeYn': '0', 'useMonth': '12'}]}</t>
-  </si>
-  <si>
     <t>/api/rts/member/membershipCard/deleteMembershipCard/V141</t>
   </si>
   <si>
@@ -448,15 +434,6 @@
   </si>
   <si>
     <t>/api/rts/base/employee/saveEmployee4Shop/V141</t>
-  </si>
-  <si>
-    <t>/api/rts/base/employee/getEmployeeList</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>获取顾客列表</t>
   </si>
   <si>
     <t>{'content-type':'application/json','version': '1.4.2','platform': 'iOS','tk':'${tk}'}</t>
@@ -774,54 +751,16 @@
     <t>{'msg': '操作成功', 'requestUUID': 'JY-227daaef597679e55fa9a16fc6a7933a', 'responseTime': '2020-09-23 11:52:16', 'ret': '0', 'success': '0', 'val': {}}</t>
   </si>
   <si>
-    <t>{
- "renewalCardYn": "1",
- "workStatus": "1",
- "consumeViewStatus": "0",
- "employeeId": "${employeeId}",
- "employeeMobile": "18088885555",
- "roleId": "2",
- "basicSalary": "1000.0000",
- "viewCellphoneNumberYn": "1",
- "sellCardYn": "1",
- "scoreSettleStatus": "0",
- "employeeNickName": "剑琅联盟",
- "positionId": "2",
- "createActivitiesStatus": "0",
- "scanCouponStatus": "1"
-}</t>
-  </si>
-  <si>
     <t>员工离职</t>
   </si>
   <si>
-    <t>{'msg': '操作成功', 'requestUUID': 'JY-bbf4de4ae676d2f496c0f4646f29e816', 'responseTime': '2020-09-23 11:52:16', 'ret': '0', 'success': '0', 'val': {}}</t>
-  </si>
-  <si>
     <t>/api/rts/base/employee/deleteEmployee/V131</t>
   </si>
   <si>
-    <t>{"employeeId":"${employeeId}"}</t>
-  </si>
-  <si>
     <t>删除员工</t>
   </si>
   <si>
-    <t>{'msg': '操作成功', 'requestUUID': 'JY-51c662ac8db595b0b0717e91e32d440a', 'responseTime': '2020-09-23 11:52:17', 'ret': '0', 'success': '0', 'val': {}}</t>
-  </si>
-  <si>
     <t>/api/rts/member/card/addCardTemplate/V141</t>
-  </si>
-  <si>
-    <t>{
- "enjoyDiscount": "90",
- "cardTemplateSourceType": "0",
- "cardType": "1",
- "rechargeAmount": "1000",
- "cardName": "储值卡测试",
- "useMonth": "12",
- "giftAmount": ""
-}</t>
   </si>
   <si>
     <t>添加储值卡模板</t>
@@ -841,24 +780,9 @@
     <t>添加计次卡模板</t>
   </si>
   <si>
-    <t>{
- "cardTemplateSourceType": "0",
- "purchasePrice": "1000",
- "cardName": "年卡测试",
- "cardType": "3",
- "enjoyDiscount": "90"
-}</t>
-  </si>
-  <si>
-    <t>添加年卡模板</t>
-  </si>
-  <si>
     <t>/api/rts/member/card/updateCardTemplateStatus/V141</t>
   </si>
   <si>
-    <t>{"cardTemplateId"}:{"${cardTemplateId}"}</t>
-  </si>
-  <si>
     <t>下架储值卡模板</t>
   </si>
   <si>
@@ -871,9 +795,6 @@
     <t>/api/rts/member/card/deleteCardTemplate/V131</t>
   </si>
   <si>
-    <t>"{id}":"{${cardTemplateId}}"</t>
-  </si>
-  <si>
     <t>删除储值卡模板</t>
   </si>
   <si>
@@ -917,18 +838,6 @@
   </si>
   <si>
     <t>c88d15a1-a3bb-493c-b238-8a74ee871559</t>
-  </si>
-  <si>
-    <t>{
- "rechargeAmount": "1000.0000",
- "systemDictionaryId": "456084858905566471",
- "journalDate":${time_now},
- "giftAmount": "0.0000",
- "membershipId": "${memberId}",
- "employeeIdList": ["343732200062099456"],
- "cardTemplateId": "465599316220481536"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -990,6 +899,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "employeeId": "",
+ "roleId": "2",
+ "renewalCardYn": "1",
+ "employeeNickName": "剑琅联盟",
+ "createActivitiesStatus": "1",
+ "scoreSettleStatus": "1",
+ "basicSalary": "1000",
+ "viewCellphoneNumberYn": "1",
+ "employeeMobile": "${phone_num}",
+ "positionId": "2",
+ "workStatus": "0",
+ "scanCouponStatus": "1",
+ "consumeViewStatus": "1",
+ "sellCardYn": "1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "membershipMobile": "${phone_num}",
+ "gender": "0",
+ "membershipName": "啦啦啦"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建员工成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "renewalCardYn": "1",
+ "workStatus": "1",
+ "consumeViewStatus": "0",
+ "employeeId": "${employeeId}",
+ "employeeMobile": "18088885555",
+ "roleId": "2",
+ "basicSalary": "1000.0000",
+ "viewCellphoneNumberYn": "1",
+ "sellCardYn": "1",
+ "scoreSettleStatus": "0",
+ "employeeNickName": "剑琅联盟",
+ "positionId": "2",
+ "createActivitiesStatus": "0",
+ "scanCouponStatus": "1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"employeeId":"${employeeId}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'msg': '操作成功', 'requestUUID': 'JY-bbf4de4ae676d2f496c0f4646f29e816', 'responseTime': '2020-09-23 11:52:16', 'ret': '0', 'success': '0', 'val': {}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'msg': '操作成功', 'requestUUID': 'JY-51c662ac8db595b0b0717e91e32d440a', 'responseTime': '2020-09-23 11:52:17', 'ret': '0', 'success': '0', 'val': {}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rts/member/membership/addMembership/V125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rts/base/employee/saveEmployee4Shop/V141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'content-type':'application/json','version': '1.4.1','platform': 'iOS','tk':'${tk}'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{'msg': '操作成功', 'requestUUID': 'JY-a64f37cd1bce5d83ea128d219b978e06', 'responseTime': '2020-09-23 11:52:10', 'ret': '0', 'success': '0', 'val': {}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1013,54 +1016,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{
+ "enjoyDiscount": "90",
+ "cardTemplateSourceType": "0",
+ "cardType": "1",
+ "rechargeAmount": "1000",
+ "cardName": "储值卡测试",
+ "useMonth": "12",
+ "giftAmount": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
- "employeeId": "",
- "roleId": "2",
- "renewalCardYn": "1",
- "employeeNickName": "剑琅联盟",
- "createActivitiesStatus": "1",
- "scoreSettleStatus": "1",
- "basicSalary": "1000",
- "viewCellphoneNumberYn": "1",
- "employeeMobile": "${phone_num}",
- "positionId": "2",
- "workStatus": "0",
- "scanCouponStatus": "1",
- "consumeViewStatus": "1",
- "sellCardYn": "1"
+ "cardTemplateSourceType": "0",
+ "purchasePrice": "1000",
+ "cardName": "年卡测试",
+ "cardType": "3",
+ "enjoyDiscount": "90"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>添加年卡模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
- "membershipMobile": "${phone_num}",
- "gender": "0",
- "membershipName": "啦啦啦"
+ "rechargeAmount": "1000.0000",
+ "systemDictionaryId": "456084858905566471",
+ "journalDate":${time_now},
+ "giftAmount": "0.0000",
+ "membershipId": "${memberId}",
+ "employeeIdList": ["343732200062099456"],
+ "cardTemplateId": "465599316220481536"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新建员工成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'msg': '操作成功', 'requestUUID': 'JY-bde3d9ea83874c179e47d68c45c19ba8', 'responseTime': '2020-09-23 11:52:11', 'ret': '0', 'success': '0', 'val': [{'employeeCompleteStatus': '1', 'employeeHeadImageUrl': 'http://ossuat.round-table-union.com/343732200141791232/employeeLogoImage/343732200062099456/7a309a021eac10928e6ccbb2a0a6e332.jpg', 'employeeId': '343732200062099456', 'employeeNickName': '吴迪', 'positionName': '店主', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506112674977665024', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506083042639335424', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506079357838413824', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506078445141086208', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506077779677007872', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '506073717715881984', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505836801137430528', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505836109618335744', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505835202264551424', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505833859869167616', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505833286159683584', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505830814775103488', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505824047399817216', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505821997467291648', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505774167163785216', 'employeeNickName': '剑琅联盟', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505378264229728256', 'employeeNickName': '牛哥', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505356577140494336', 'employeeNickName': '琅', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '464854987290226688', 'employeeNickName': '王磊1', 'positionName': '店长', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '465985919050485760', 'employeeNickName': '哈哈', 'positionName': '总监', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '495635425165332480', 'employeeNickName': '嘿嘿', 'positionName': '美发师', 'showStatus': '1', 'workStatus': '0'}, {'employeeCompleteStatus': '0', 'employeeHeadImageUrl': '', 'employeeId': '505478695282921472', 'employeeNickName': '剑琅联盟', 'positionName': '总监', 'showStatus': '1', 'workStatus': '1'}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
+    <t>{"id":"${storeCardTemplateId}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"${timeCardTemplateId}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"${yearCardTemplateId}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cardTemplateId":"${yearCardTemplateId}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cardTemplateId":"${timeCardTemplateId}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cardTemplateId":"${storeCardTemplateId}"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1408,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1457,25 +1475,25 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>15</v>
@@ -1486,25 +1504,25 @@
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1513,35 +1531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
+    <row r="4" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1565,7 +1555,6 @@
     <row r="25" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1577,7 +1566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1629,7 +1618,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -1658,7 +1647,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -1920,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1969,16 +1958,16 @@
     </row>
     <row r="2" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -1987,7 +1976,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>15</v>
@@ -2001,13 +1990,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -2016,7 +2005,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>15</v>
@@ -2030,13 +2019,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -2045,7 +2034,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>15</v>
@@ -2054,35 +2043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
+    <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2118,7 +2079,6 @@
     <row r="38" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2131,7 +2091,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2179,25 +2139,25 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>16</v>
@@ -2208,25 +2168,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>16</v>
@@ -2237,25 +2197,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>16</v>
@@ -2273,7 +2233,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2321,240 +2281,240 @@
     </row>
     <row r="2" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2562,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2614,13 +2574,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
@@ -2629,7 +2589,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2643,13 +2603,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -2658,7 +2618,7 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2672,13 +2632,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
@@ -2687,7 +2647,7 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2701,13 +2661,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
@@ -2716,7 +2676,7 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2730,13 +2690,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
@@ -2745,7 +2705,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -2759,22 +2719,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -2792,10 +2752,136 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="48.875" customWidth="1"/>
+    <col min="3" max="3" width="61.75" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="64.5" customWidth="1"/>
+    <col min="7" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="29.25" customWidth="1"/>
+    <col min="10" max="69" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2843,19 +2929,19 @@
     </row>
     <row r="2" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -2869,16 +2955,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -2892,16 +2978,16 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
@@ -2914,17 +3000,17 @@
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>145</v>
+      <c r="B5" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -2937,17 +3023,17 @@
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>145</v>
+      <c r="B6" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -2960,17 +3046,17 @@
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>145</v>
+      <c r="B7" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -2979,91 +3065,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
+    <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3085,42 +3102,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="744" activeTab="7"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="744" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="start_before" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="183">
   <si>
     <t>case_id</t>
   </si>
@@ -362,41 +362,6 @@
     <t>新建顾客无生日</t>
   </si>
   <si>
-    <t>/api/rts/member/membershipCard/purchaseNewCard/V141</t>
-  </si>
-  <si>
-    <t>新办储值卡</t>
-  </si>
-  <si>
-    <t>{
- "cardTemplateId": "503611922391625728",
- "employeeIdList": ["343732200062099456"],
- "journalDate":${time_now},
- "membershipId": "${memberId}",
- "systemDictionaryId": "456084858905566471",
- "purchaseAmount": "2000.0000"
-}</t>
-  </si>
-  <si>
-    <t>新办计次卡</t>
-  </si>
-  <si>
-    <t>{
- "journalDate":${time_now},
- "cardTemplateId": "463767922616791040",
- "employeeIdList": ["343732200062099456"],
- "membershipId": "${memberId}",
- "systemDictionaryId": "456084858905566471",
- "purchaseAmount": "1000.0000"
-}</t>
-  </si>
-  <si>
-    <t>新办年卡</t>
-  </si>
-  <si>
-    <t>{'msg': '操作成功', 'requestUUID': 'JY-55bdf6a0e4598095236a68419ccb51ea', 'responseTime': '2020-09-23 11:52:07', 'ret': '0', 'success': '0', 'val': {'relationStatus': '1'}}</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
@@ -895,10 +860,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'msg': '操作成功', 'requestUUID': 'JY-fe98f266cbb643b8a353ea6407665ea0', 'responseTime': '2020-09-23 11:52:07', 'ret': '0', 'success': '0', 'val': {'relationStatus': '1'}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1046,39 +1007,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"id":"${storeCardTemplateId}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"${timeCardTemplateId}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"${yearCardTemplateId}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cardTemplateId":"${yearCardTemplateId}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cardTemplateId":"${timeCardTemplateId}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cardTemplateId":"${storeCardTemplateId}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rts/member/membership/addMembership/V125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建顾客无姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
- "rechargeAmount": "1000.0000",
- "systemDictionaryId": "456084858905566471",
- "journalDate":${time_now},
- "giftAmount": "0.0000",
- "membershipId": "${memberId}",
- "employeeIdList": ["343732200062099456"],
- "cardTemplateId": "465599316220481536"
+     "membershipMobile":"",
+     "gender": "0",
+     "membershipName": ""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":"${storeCardTemplateId}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":"${timeCardTemplateId}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":"${yearCardTemplateId}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"cardTemplateId":"${yearCardTemplateId}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"cardTemplateId":"${timeCardTemplateId}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"cardTemplateId":"${storeCardTemplateId}"}</t>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+     "membershipMobile":"",
+     "gender": "",
+     "membershipName": "哈哈哈"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建顾客无性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入顾客姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择性别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1475,25 +1468,25 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>15</v>
@@ -1504,25 +1497,25 @@
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1618,7 +1611,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -1647,7 +1640,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -1909,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1958,91 +1951,57 @@
     </row>
     <row r="2" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
+      <c r="A3" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
+        <v>66</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2077,8 +2036,6 @@
     <row r="36" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2139,25 +2096,25 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>16</v>
@@ -2168,25 +2125,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>16</v>
@@ -2197,25 +2154,25 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>16</v>
@@ -2233,7 +2190,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2284,28 +2241,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2313,28 +2270,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2342,28 +2299,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.2">
@@ -2371,28 +2328,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
@@ -2400,28 +2357,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
@@ -2429,28 +2386,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2458,28 +2415,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2487,28 +2444,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2574,13 +2531,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
@@ -2589,7 +2546,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2603,13 +2560,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -2618,7 +2575,7 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2632,13 +2589,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
@@ -2647,7 +2604,7 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2661,13 +2618,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
@@ -2676,7 +2633,7 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2690,13 +2647,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
@@ -2705,7 +2662,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -2719,22 +2676,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -2805,13 +2762,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -2828,13 +2785,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -2851,13 +2808,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -2880,7 +2837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2929,19 +2886,19 @@
     </row>
     <row r="2" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -2955,16 +2912,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -2978,16 +2935,16 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
@@ -3001,16 +2958,16 @@
         <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -3024,16 +2981,16 @@
         <v>28</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -3047,16 +3004,16 @@
         <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -3102,42 +3059,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="744" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="744" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="start_before" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,16 @@
     <sheet name="employee_update" sheetId="6" r:id="rId6"/>
     <sheet name="create_card_template" sheetId="9" r:id="rId7"/>
     <sheet name="card_template" sheetId="7" r:id="rId8"/>
-    <sheet name="init" sheetId="8" state="hidden" r:id="rId9"/>
+    <sheet name="event_rose_template" sheetId="10" r:id="rId9"/>
+    <sheet name="event_list_shop" sheetId="11" r:id="rId10"/>
+    <sheet name="init" sheetId="8" state="hidden" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="231">
   <si>
     <t>case_id</t>
   </si>
@@ -1051,6 +1053,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>创建顾客无性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入顾客姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾客姓名长度大于10位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建顾客姓名过长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建顾客手机号过长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建顾客手机号短</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建顾客手机号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入正确的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
      "membershipMobile":"",
      "gender": "",
@@ -1059,7 +1105,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建顾客无性别</t>
+    <t>{
+     "membershipMobile":"130111111111",
+     "gender": "0",
+     "membershipName": "哈哈哈哈"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+     "membershipMobile":"1301111111",
+     "gender": "0",
+     "membershipName": "哈哈哈哈"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+     "membershipMobile":"13011111111",
+     "gender": "0",
+     "membershipName": "哈哈哈哈"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+     "membershipMobile":"",
+     "gender": "0",
+     "membershipName": "哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rts/activity/event/createEvent4Shop/V141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "couponItemDesc": "",
+   "couponItemName": "",
+   "couponItemPreferentialPrice": "1",
+   "couponItemPrice": "100",
+   "couponPropertyStatus": "2",
+   "couponTemplateId": '',
+   "couponUseRules": "",
+   "couponUseRulesJson": "",
+   "couponValidPeriod": "",
+   "discountRate": "30",
+   "eventId": "",
+   "eventImageList": [{
+       "eventImageDefaultYn": "",
+       "eventImageHeight": "1080",
+       "eventImageId": "",
+       "eventImageUrl": "https://ossuat.round-table-union.com/349549553790263296/eventImage/zp_029c390448bb5ef451cc692bb8b4a338.jpg",
+       "eventImageWidth": "658"
+   }],
+   "eventTypeId": "5",
+   "fastCreateCouponTemplateId": "",
+   "fastCreateFlag": "0",
+   "itemGroupId": "1",
+   "itemGroupName": "剪发"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰券无名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1067,11 +1177,343 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请输入顾客姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择性别</t>
+    <t>请输入项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "couponItemDesc": "",
+   "couponItemName": "玫瑰券测试",
+   "couponItemPreferentialPrice": "",
+   "couponItemPrice": "100",
+   "couponPropertyStatus": "2",
+   "couponTemplateId": '',
+   "couponUseRules": "",
+   "couponUseRulesJson": "",
+   "couponValidPeriod": "",
+   "discountRate": "30",
+   "eventId": "",
+   "eventImageList": [{
+       "eventImageDefaultYn": "",
+       "eventImageHeight": "1080",
+       "eventImageId": "",
+       "eventImageUrl": "https://ossuat.round-table-union.com/349549553790263296/eventImage/zp_029c390448bb5ef451cc692bb8b4a338.jpg",
+       "eventImageWidth": "658"
+   }],
+   "eventTypeId": "5",
+   "fastCreateCouponTemplateId": "",
+   "fastCreateFlag": "0",
+   "itemGroupId": "1",
+   "itemGroupName": "剪发"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入项目优惠价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建玫瑰券无优惠价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建玫瑰券无原价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入大于等于1元的项目原价</t>
+  </si>
+  <si>
+    <t>{
+   "couponItemDesc": "",
+   "couponItemName": "玫瑰券测试",
+   "couponItemPreferentialPrice": "1",
+   "couponItemPrice": "",
+   "couponPropertyStatus": "2",
+   "couponTemplateId": '',
+   "couponUseRules": "",
+   "couponUseRulesJson": "",
+   "couponValidPeriod": "",
+   "discountRate": "30",
+   "eventId": "",
+   "eventImageList": [{
+       "eventImageDefaultYn": "",
+       "eventImageHeight": "1080",
+       "eventImageId": "",
+       "eventImageUrl": "https://ossuat.round-table-union.com/349549553790263296/eventImage/zp_029c390448bb5ef451cc692bb8b4a338.jpg",
+       "eventImageWidth": "658"
+   }],
+   "eventTypeId": "5",
+   "fastCreateCouponTemplateId": "",
+   "fastCreateFlag": "0",
+   "itemGroupId": "1",
+   "itemGroupName": "剪发"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建玫瑰券原价为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰券优惠价0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额必须是1-999999.99之间且最多2位小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "couponItemDesc": "",
+   "couponItemName": "玫瑰券测试",
+   "couponItemPreferentialPrice": "1",
+   "couponItemPrice": "0",
+   "couponPropertyStatus": "2",
+   "couponTemplateId": '',
+   "couponUseRules": "",
+   "couponUseRulesJson": "",
+   "couponValidPeriod": "",
+   "discountRate": "30",
+   "eventId": "",
+   "eventImageList": [{
+       "eventImageDefaultYn": "",
+       "eventImageHeight": "1080",
+       "eventImageId": "",
+       "eventImageUrl": "https://ossuat.round-table-union.com/349549553790263296/eventImage/zp_029c390448bb5ef451cc692bb8b4a338.jpg",
+       "eventImageWidth": "658"
+   }],
+   "eventTypeId": "5",
+   "fastCreateCouponTemplateId": "",
+   "fastCreateFlag": "0",
+   "itemGroupId": "1",
+   "itemGroupName": "剪发"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "couponItemDesc": "",
+   "couponItemName": "玫瑰券测试",
+   "couponItemPreferentialPrice": "0",
+   "couponItemPrice": "100",
+   "couponPropertyStatus": "2",
+   "couponTemplateId": '',
+   "couponUseRules": "",
+   "couponUseRulesJson": "",
+   "couponValidPeriod": "",
+   "discountRate": "30",
+   "eventId": "",
+   "eventImageList": [{
+       "eventImageDefaultYn": "",
+       "eventImageHeight": "1080",
+       "eventImageId": "",
+       "eventImageUrl": "https://ossuat.round-table-union.com/349549553790263296/eventImage/zp_029c390448bb5ef451cc692bb8b4a338.jpg",
+       "eventImageWidth": "658"
+   }],
+   "eventTypeId": "5",
+   "fastCreateCouponTemplateId": "",
+   "fastCreateFlag": "0",
+   "itemGroupId": "1",
+   "itemGroupName": "剪发"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原价金额过大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠价金额过大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "couponItemDesc": "",
+   "couponItemName": "玫瑰券测试",
+   "couponItemPreferentialPrice": "1",
+   "couponItemPrice": "10000000",
+   "couponPropertyStatus": "2",
+   "couponTemplateId": '',
+   "couponUseRules": "",
+   "couponUseRulesJson": "",
+   "couponValidPeriod": "",
+   "discountRate": "30",
+   "eventId": "",
+   "eventImageList": [{
+       "eventImageDefaultYn": "",
+       "eventImageHeight": "1080",
+       "eventImageId": "",
+       "eventImageUrl": "https://ossuat.round-table-union.com/349549553790263296/eventImage/zp_029c390448bb5ef451cc692bb8b4a338.jpg",
+       "eventImageWidth": "658"
+   }],
+   "eventTypeId": "5",
+   "fastCreateCouponTemplateId": "",
+   "fastCreateFlag": "0",
+   "itemGroupId": "1",
+   "itemGroupName": "剪发"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "couponItemDesc": "",
+   "couponItemName": "玫瑰券测试",
+   "couponItemPreferentialPrice": "10000000",
+   "couponItemPrice": "100",
+   "couponPropertyStatus": "2",
+   "couponTemplateId": '',
+   "couponUseRules": "",
+   "couponUseRulesJson": "",
+   "couponValidPeriod": "",
+   "discountRate": "30",
+   "eventId": "",
+   "eventImageList": [{
+       "eventImageDefaultYn": "",
+       "eventImageHeight": "1080",
+       "eventImageId": "",
+       "eventImageUrl": "https://ossuat.round-table-union.com/349549553790263296/eventImage/zp_029c390448bb5ef451cc692bb8b4a338.jpg",
+       "eventImageWidth": "658"
+   }],
+   "eventTypeId": "5",
+   "fastCreateCouponTemplateId": "",
+   "fastCreateFlag": "0",
+   "itemGroupId": "1",
+   "itemGroupName": "剪发"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未选择项目大类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择项目大类</t>
+  </si>
+  <si>
+    <t>{
+   "couponItemDesc": "",
+   "couponItemName": "玫瑰券测试",
+   "couponItemPreferentialPrice": "1",
+   "couponItemPrice": "100",
+   "couponPropertyStatus": "2",
+   "couponTemplateId": '',
+   "couponUseRules": "",
+   "couponUseRulesJson": "",
+   "couponValidPeriod": "",
+   "discountRate": "30",
+   "eventId": "",
+   "eventImageList": [{
+       "eventImageDefaultYn": "",
+       "eventImageHeight": "1080",
+       "eventImageId": "",
+       "eventImageUrl": "https://ossuat.round-table-union.com/349549553790263296/eventImage/zp_029c390448bb5ef451cc692bb8b4a338.jpg",
+       "eventImageWidth": "658"
+   }],
+   "eventTypeId": "5",
+   "fastCreateCouponTemplateId": "",
+   "fastCreateFlag": "0",
+   "itemGroupId": "",
+   "itemGroupName": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上传图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请上传优惠券配图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   "couponItemDesc": "",
+   "couponItemName": "玫瑰券测试",
+   "couponItemPreferentialPrice": "1",
+   "couponItemPrice": "100",
+   "couponPropertyStatus": "2",
+   "couponTemplateId": '',
+   "couponUseRules": "",
+   "couponUseRulesJson": "",
+   "couponValidPeriod": "",
+   "discountRate": "30",
+   "eventId": "",
+   "eventImageList": [],
+   "eventTypeId": "5",
+   "fastCreateCouponTemplateId": "",
+   "fastCreateFlag": "0",
+   "itemGroupId": "1",
+   "itemGroupName": "剪发"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rts/activity/event/eventList4Shop/V140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已上架列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已下架列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递交中列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "size": "10",
+ "tabType": "1",
+ "page": "1",
+ "shopId": "${shopId}",
+ "eventType": "5"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "size": "10",
+ "tabType": "2",
+ "page": "1",
+ "shopId": "${shopId}",
+ "eventType": "5"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "size": "10",
+ "tabType": "3",
+ "page": "1",
+ "shopId": "${shopId}",
+ "eventType": "5"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "size": "10",
+ "tabType": "4",
+ "page": "1",
+ "shopId": "${shopId}",
+ "eventType": "5"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1555,6 +1997,223 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4" customWidth="1"/>
+    <col min="2" max="2" width="48.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="61.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="64.5" style="4" customWidth="1"/>
+    <col min="7" max="8" width="9" style="4" customWidth="1"/>
+    <col min="9" max="9" width="29.25" style="4" customWidth="1"/>
+    <col min="10" max="69" width="9" style="4" customWidth="1"/>
+    <col min="70" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="38.375" style="3" customWidth="1"/>
+    <col min="7" max="65" width="9" style="3" customWidth="1"/>
+    <col min="66" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
@@ -1904,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1913,10 +2572,12 @@
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="83.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="61.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="64.5" style="2" customWidth="1"/>
-    <col min="7" max="84" width="9" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="84" width="9" style="2" customWidth="1"/>
     <col min="85" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1930,7 +2591,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1945,7 +2606,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1959,11 +2620,11 @@
       <c r="C2" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>175</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -1975,7 +2636,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1986,10 +2647,10 @@
         <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1997,14 +2658,102 @@
       <c r="F3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
     <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2838,7 +3587,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3039,67 +3788,332 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="38.375" style="3" customWidth="1"/>
-    <col min="7" max="65" width="9" style="3" customWidth="1"/>
-    <col min="66" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="4" customWidth="1"/>
+    <col min="2" max="2" width="48.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="61.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="64.5" style="4" customWidth="1"/>
+    <col min="7" max="8" width="9" style="4" customWidth="1"/>
+    <col min="9" max="9" width="29.25" style="4" customWidth="1"/>
+    <col min="10" max="69" width="9" style="4" customWidth="1"/>
+    <col min="70" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" t="s">
-        <v>142</v>
-      </c>
-    </row>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>